--- a/nominas/BIO870307QD0/Reporte de Nomina  2023-05-30.xlsx
+++ b/nominas/BIO870307QD0/Reporte de Nomina  2023-05-30.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1049">
   <si>
-    <t>Emite: Oscar Farias Ayala</t>
+    <t>Emite: Monica  Montes Zesatti</t>
   </si>
   <si>
     <t>Resumen de Recibos de Nomina</t>
@@ -32,12 +32,12 @@
     <t>UUID</t>
   </si>
   <si>
+    <t>depto</t>
+  </si>
+  <si>
     <t>numero</t>
   </si>
   <si>
-    <t>depto</t>
-  </si>
-  <si>
     <t>nombre</t>
   </si>
   <si>
@@ -47,45 +47,45 @@
     <t>Salario Diario</t>
   </si>
   <si>
+    <t>P:001:P001:SUELDO</t>
+  </si>
+  <si>
+    <t>P:005:P006:FONDO AHORRO PATRON</t>
+  </si>
+  <si>
+    <t>P:038:P020:GRATIFICACION EXTRAORDINARIA</t>
+  </si>
+  <si>
     <t>P:047:P022:GRATIFICACION COMEDOR</t>
   </si>
   <si>
-    <t>P:038:P020:GRATIFICACION EXTRAORDINARIA</t>
-  </si>
-  <si>
-    <t>P:001:P001:SUELDO</t>
-  </si>
-  <si>
-    <t>P:005:P006:FONDO AHORRO PATRON</t>
-  </si>
-  <si>
     <t>P:038:P002:BONO</t>
   </si>
   <si>
     <t>Total Percepciones</t>
   </si>
   <si>
+    <t>D:002:D001:ISR</t>
+  </si>
+  <si>
+    <t>D:001:D002:IMSS</t>
+  </si>
+  <si>
+    <t>D:004:D005:FONDO AHORRO PATRON</t>
+  </si>
+  <si>
+    <t>D:004:D006:ALIMENTACION</t>
+  </si>
+  <si>
+    <t>D:004:D011:FONDO AHORRO TRABAJADOR</t>
+  </si>
+  <si>
+    <t>D:010:D094:CREDITO INFONAVIT</t>
+  </si>
+  <si>
     <t>D:004:D109:CAJA DE AHORRO</t>
   </si>
   <si>
-    <t>D:004:D006:ALIMENTACION</t>
-  </si>
-  <si>
-    <t>D:004:D005:FONDO AHORRO PATRON</t>
-  </si>
-  <si>
-    <t>D:004:D011:FONDO AHORRO TRABAJADOR</t>
-  </si>
-  <si>
-    <t>D:001:D002:IMSS</t>
-  </si>
-  <si>
-    <t>D:002:D001:ISR</t>
-  </si>
-  <si>
-    <t>D:010:D094:CREDITO INFONAVIT</t>
-  </si>
-  <si>
     <t>Total Deducciones</t>
   </si>
   <si>
@@ -116,36 +116,36 @@
     <t>$ 414.02</t>
   </si>
   <si>
+    <t>$ 5,796.28</t>
+  </si>
+  <si>
+    <t>$ 405.74</t>
+  </si>
+  <si>
+    <t>$ 400.00</t>
+  </si>
+  <si>
     <t>$ 207.50</t>
   </si>
   <si>
-    <t>$ 400.00</t>
-  </si>
-  <si>
-    <t>$ 5,796.28</t>
-  </si>
-  <si>
-    <t>$ 405.74</t>
-  </si>
-  <si>
     <t>$ 0.00</t>
   </si>
   <si>
     <t>$ 6,809.52</t>
   </si>
   <si>
+    <t>$ 624.76</t>
+  </si>
+  <si>
+    <t>$ 228.47</t>
+  </si>
+  <si>
+    <t>$ 37.04</t>
+  </si>
+  <si>
     <t>$ 200.00</t>
   </si>
   <si>
-    <t>$ 228.47</t>
-  </si>
-  <si>
-    <t>$ 624.76</t>
-  </si>
-  <si>
-    <t>$ 37.04</t>
-  </si>
-  <si>
     <t>$ 2,109.25</t>
   </si>
   <si>
@@ -164,30 +164,30 @@
     <t>$ 276.46</t>
   </si>
   <si>
+    <t>$ 3,870.44</t>
+  </si>
+  <si>
+    <t>$ 270.93</t>
+  </si>
+  <si>
     <t>$ 1,300.00</t>
   </si>
   <si>
-    <t>$ 3,870.44</t>
-  </si>
-  <si>
-    <t>$ 270.93</t>
-  </si>
-  <si>
     <t>$ 5,648.87</t>
   </si>
   <si>
+    <t>$ 452.05</t>
+  </si>
+  <si>
+    <t>$ 172.98</t>
+  </si>
+  <si>
+    <t>$ 880.00</t>
+  </si>
+  <si>
     <t>$ 150.00</t>
   </si>
   <si>
-    <t>$ 172.98</t>
-  </si>
-  <si>
-    <t>$ 452.05</t>
-  </si>
-  <si>
-    <t>$ 880.00</t>
-  </si>
-  <si>
     <t>$ 2,404.39</t>
   </si>
   <si>
@@ -206,30 +206,30 @@
     <t>$ 500.47</t>
   </si>
   <si>
+    <t>$ 7,006.58</t>
+  </si>
+  <si>
+    <t>$ 490.46</t>
+  </si>
+  <si>
     <t>$ 900.00</t>
   </si>
   <si>
-    <t>$ 7,006.58</t>
-  </si>
-  <si>
-    <t>$ 490.46</t>
-  </si>
-  <si>
     <t>$ 8,604.54</t>
   </si>
   <si>
+    <t>$ 965.01</t>
+  </si>
+  <si>
+    <t>$ 276.80</t>
+  </si>
+  <si>
+    <t>$ 1,820.61</t>
+  </si>
+  <si>
     <t>$ 100.00</t>
   </si>
   <si>
-    <t>$ 276.80</t>
-  </si>
-  <si>
-    <t>$ 965.01</t>
-  </si>
-  <si>
-    <t>$ 1,820.61</t>
-  </si>
-  <si>
     <t>$ 4,350.84</t>
   </si>
   <si>
@@ -251,27 +251,27 @@
     <t>$ 359.57</t>
   </si>
   <si>
+    <t>$ 5,033.98</t>
+  </si>
+  <si>
+    <t>$ 352.38</t>
+  </si>
+  <si>
     <t>$ 1,000.00</t>
   </si>
   <si>
-    <t>$ 5,033.98</t>
-  </si>
-  <si>
-    <t>$ 352.38</t>
-  </si>
-  <si>
     <t>$ 6,593.86</t>
   </si>
   <si>
+    <t>$ 595.68</t>
+  </si>
+  <si>
+    <t>$ 209.53</t>
+  </si>
+  <si>
     <t>$ 700.00</t>
   </si>
   <si>
-    <t>$ 209.53</t>
-  </si>
-  <si>
-    <t>$ 595.68</t>
-  </si>
-  <si>
     <t>$ 2,417.47</t>
   </si>
   <si>
@@ -302,18 +302,18 @@
     <t>$ 5,359.72</t>
   </si>
   <si>
+    <t>$ 400.43</t>
+  </si>
+  <si>
+    <t>$ 155.93</t>
+  </si>
+  <si>
+    <t>$ 1,756.10</t>
+  </si>
+  <si>
     <t>$ 300.00</t>
   </si>
   <si>
-    <t>$ 155.93</t>
-  </si>
-  <si>
-    <t>$ 400.43</t>
-  </si>
-  <si>
-    <t>$ 1,756.10</t>
-  </si>
-  <si>
     <t>$ 3,494.08</t>
   </si>
   <si>
@@ -341,18 +341,18 @@
     <t>$ 8,712.25</t>
   </si>
   <si>
+    <t>$ 973.94</t>
+  </si>
+  <si>
+    <t>$ 303.62</t>
+  </si>
+  <si>
+    <t>$ 2,029.83</t>
+  </si>
+  <si>
     <t>$ 600.00</t>
   </si>
   <si>
-    <t>$ 303.62</t>
-  </si>
-  <si>
-    <t>$ 973.94</t>
-  </si>
-  <si>
-    <t>$ 2,029.83</t>
-  </si>
-  <si>
     <t>$ 5,227.67</t>
   </si>
   <si>
@@ -383,12 +383,12 @@
     <t>$ 11,054.22</t>
   </si>
   <si>
+    <t>$ 1,441.46</t>
+  </si>
+  <si>
     <t>$ 307.76</t>
   </si>
   <si>
-    <t>$ 1,441.46</t>
-  </si>
-  <si>
     <t>$ 1,446.82</t>
   </si>
   <si>
@@ -419,18 +419,18 @@
     <t>$ 15,824.45</t>
   </si>
   <si>
+    <t>$ 2,402.74</t>
+  </si>
+  <si>
+    <t>$ 541.02</t>
+  </si>
+  <si>
+    <t>$ 3,861.02</t>
+  </si>
+  <si>
     <t>$ 250.00</t>
   </si>
   <si>
-    <t>$ 541.02</t>
-  </si>
-  <si>
-    <t>$ 2,402.74</t>
-  </si>
-  <si>
-    <t>$ 3,861.02</t>
-  </si>
-  <si>
     <t>$ 9,305.62</t>
   </si>
   <si>
@@ -461,12 +461,12 @@
     <t>$ 5,135.17</t>
   </si>
   <si>
+    <t>$ 377.60</t>
+  </si>
+  <si>
     <t>$ 198.47</t>
   </si>
   <si>
-    <t>$ 377.60</t>
-  </si>
-  <si>
     <t>$ 469.83</t>
   </si>
   <si>
@@ -488,24 +488,24 @@
     <t>$ 345.40</t>
   </si>
   <si>
+    <t>$ 4,835.60</t>
+  </si>
+  <si>
+    <t>$ 338.49</t>
+  </si>
+  <si>
     <t>$ 1,400.00</t>
   </si>
   <si>
-    <t>$ 4,835.60</t>
-  </si>
-  <si>
-    <t>$ 338.49</t>
-  </si>
-  <si>
     <t>$ 6,781.59</t>
   </si>
   <si>
+    <t>$ 631.81</t>
+  </si>
+  <si>
     <t>$ 202.80</t>
   </si>
   <si>
-    <t>$ 631.81</t>
-  </si>
-  <si>
     <t>$ 2,019.09</t>
   </si>
   <si>
@@ -533,12 +533,12 @@
     <t>$ 4,380.41</t>
   </si>
   <si>
+    <t>$ 307.97</t>
+  </si>
+  <si>
     <t>$ 124.56</t>
   </si>
   <si>
-    <t>$ 307.97</t>
-  </si>
-  <si>
     <t>$ 1,155.17</t>
   </si>
   <si>
@@ -566,12 +566,12 @@
     <t>$ 5,877.43</t>
   </si>
   <si>
+    <t>$ 472.62</t>
+  </si>
+  <si>
     <t>$ 163.76</t>
   </si>
   <si>
-    <t>$ 472.62</t>
-  </si>
-  <si>
     <t>$ 2,059.55</t>
   </si>
   <si>
@@ -608,12 +608,12 @@
     <t>$ 44,700.90</t>
   </si>
   <si>
+    <t>$ 10,185.20</t>
+  </si>
+  <si>
     <t>$ 918.37</t>
   </si>
   <si>
-    <t>$ 10,185.20</t>
-  </si>
-  <si>
     <t>$ 16,824.23</t>
   </si>
   <si>
@@ -641,12 +641,12 @@
     <t>$ 21,762.22</t>
   </si>
   <si>
+    <t>$ 3,707.94</t>
+  </si>
+  <si>
     <t>$ 741.98</t>
   </si>
   <si>
-    <t>$ 3,707.94</t>
-  </si>
-  <si>
     <t>$ 8,177.66</t>
   </si>
   <si>
@@ -674,12 +674,12 @@
     <t>$ 5,627.86</t>
   </si>
   <si>
+    <t>$ 435.30</t>
+  </si>
+  <si>
     <t>$ 187.55</t>
   </si>
   <si>
-    <t>$ 435.30</t>
-  </si>
-  <si>
     <t>$ 1,839.55</t>
   </si>
   <si>
@@ -707,12 +707,12 @@
     <t>$ 6,274.28</t>
   </si>
   <si>
+    <t>$ 536.15</t>
+  </si>
+  <si>
     <t>$ 202.25</t>
   </si>
   <si>
-    <t>$ 536.15</t>
-  </si>
-  <si>
     <t>$ 1,687.34</t>
   </si>
   <si>
@@ -740,15 +740,15 @@
     <t>$ 4,053.17</t>
   </si>
   <si>
+    <t>$ 267.58</t>
+  </si>
+  <si>
+    <t>$ 113.14</t>
+  </si>
+  <si>
     <t>$ 500.00</t>
   </si>
   <si>
-    <t>$ 113.14</t>
-  </si>
-  <si>
-    <t>$ 267.58</t>
-  </si>
-  <si>
     <t>$ 1,591.40</t>
   </si>
   <si>
@@ -776,12 +776,12 @@
     <t>$ 5,238.83</t>
   </si>
   <si>
+    <t>$ 388.14</t>
+  </si>
+  <si>
     <t>$ 174.38</t>
   </si>
   <si>
-    <t>$ 388.14</t>
-  </si>
-  <si>
     <t>$ 1,928.32</t>
   </si>
   <si>
@@ -809,12 +809,12 @@
     <t>$ 14,546.96</t>
   </si>
   <si>
+    <t>$ 2,138.70</t>
+  </si>
+  <si>
     <t>$ 405.32</t>
   </si>
   <si>
-    <t>$ 2,138.70</t>
-  </si>
-  <si>
     <t>$ 5,127.72</t>
   </si>
   <si>
@@ -860,12 +860,12 @@
     <t>$ 4,003.73</t>
   </si>
   <si>
+    <t>$ 262.55</t>
+  </si>
+  <si>
     <t>$ 148.17</t>
   </si>
   <si>
-    <t>$ 262.55</t>
-  </si>
-  <si>
     <t>$ 1,263.64</t>
   </si>
   <si>
@@ -896,12 +896,12 @@
     <t>$ 3,353.30</t>
   </si>
   <si>
+    <t>$ 79.65</t>
+  </si>
+  <si>
     <t>$ 93.66</t>
   </si>
   <si>
-    <t>$ 79.65</t>
-  </si>
-  <si>
     <t>$ 779.69</t>
   </si>
   <si>
@@ -935,15 +935,15 @@
     <t>$ 17,855.44</t>
   </si>
   <si>
+    <t>$ 2,849.18</t>
+  </si>
+  <si>
+    <t>$ 498.59</t>
+  </si>
+  <si>
     <t>$ 3,000.00</t>
   </si>
   <si>
-    <t>$ 498.59</t>
-  </si>
-  <si>
-    <t>$ 2,849.18</t>
-  </si>
-  <si>
     <t>$ 8,864.35</t>
   </si>
   <si>
@@ -974,15 +974,15 @@
     <t>$ 13,223.47</t>
   </si>
   <si>
+    <t>$ 1,874.50</t>
+  </si>
+  <si>
+    <t>$ 534.04</t>
+  </si>
+  <si>
     <t>$ 1,500.00</t>
   </si>
   <si>
-    <t>$ 534.04</t>
-  </si>
-  <si>
-    <t>$ 1,874.50</t>
-  </si>
-  <si>
     <t>$ 5,819.06</t>
   </si>
   <si>
@@ -1025,12 +1025,12 @@
     <t>$ 11,048.23</t>
   </si>
   <si>
+    <t>$ 1,440.26</t>
+  </si>
+  <si>
     <t>$ 305.68</t>
   </si>
   <si>
-    <t>$ 1,440.26</t>
-  </si>
-  <si>
     <t>$ 3,671.86</t>
   </si>
   <si>
@@ -1058,12 +1058,12 @@
     <t>$ 6,412.22</t>
   </si>
   <si>
+    <t>$ 553.53</t>
+  </si>
+  <si>
     <t>$ 202.55</t>
   </si>
   <si>
-    <t>$ 553.53</t>
-  </si>
-  <si>
     <t>$ 1,272.52</t>
   </si>
   <si>
@@ -1112,12 +1112,12 @@
     <t>$ 15,251.17</t>
   </si>
   <si>
+    <t>$ 2,279.28</t>
+  </si>
+  <si>
     <t>$ 570.82</t>
   </si>
   <si>
-    <t>$ 2,279.28</t>
-  </si>
-  <si>
     <t>$ 5,525.94</t>
   </si>
   <si>
@@ -1145,12 +1145,12 @@
     <t>$ 2,876.69</t>
   </si>
   <si>
+    <t>$ 21.85</t>
+  </si>
+  <si>
     <t>$ 79.09</t>
   </si>
   <si>
-    <t>$ 21.85</t>
-  </si>
-  <si>
     <t>$ 807.68</t>
   </si>
   <si>
@@ -1181,12 +1181,12 @@
     <t>$ 29,009.07</t>
   </si>
   <si>
+    <t>$ 5,822.30</t>
+  </si>
+  <si>
     <t>$ 4,500.00</t>
   </si>
   <si>
-    <t>$ 5,822.30</t>
-  </si>
-  <si>
     <t>$ 13,663.67</t>
   </si>
   <si>
@@ -1214,12 +1214,12 @@
     <t>$ 5,018.18</t>
   </si>
   <si>
+    <t>$ 365.70</t>
+  </si>
+  <si>
     <t>$ 139.57</t>
   </si>
   <si>
-    <t>$ 365.70</t>
-  </si>
-  <si>
     <t>$ 1,592.21</t>
   </si>
   <si>
@@ -1247,12 +1247,12 @@
     <t>$ 4,775.02</t>
   </si>
   <si>
+    <t>$ 344.54</t>
+  </si>
+  <si>
     <t>$ 125.08</t>
   </si>
   <si>
-    <t>$ 344.54</t>
-  </si>
-  <si>
     <t>$ 1,209.32</t>
   </si>
   <si>
@@ -1280,12 +1280,12 @@
     <t>$ 4,459.87</t>
   </si>
   <si>
+    <t>$ 308.94</t>
+  </si>
+  <si>
     <t>$ 123.97</t>
   </si>
   <si>
-    <t>$ 308.94</t>
-  </si>
-  <si>
     <t>$ 1,596.79</t>
   </si>
   <si>
@@ -1361,12 +1361,12 @@
     <t>$ 10,542.92</t>
   </si>
   <si>
+    <t>$ 1,336.49</t>
+  </si>
+  <si>
     <t>$ 291.98</t>
   </si>
   <si>
-    <t>$ 1,336.49</t>
-  </si>
-  <si>
     <t>$ 3,007.91</t>
   </si>
   <si>
@@ -1391,12 +1391,12 @@
     <t>$ 4,752.20</t>
   </si>
   <si>
+    <t>$ 371.01</t>
+  </si>
+  <si>
     <t>$ 113.77</t>
   </si>
   <si>
-    <t>$ 371.01</t>
-  </si>
-  <si>
     <t>$ 692.28</t>
   </si>
   <si>
@@ -1421,12 +1421,12 @@
     <t>$ 4,145.00</t>
   </si>
   <si>
+    <t>$ 304.94</t>
+  </si>
+  <si>
     <t>$ 88.70</t>
   </si>
   <si>
-    <t>$ 304.94</t>
-  </si>
-  <si>
     <t>$ 601.14</t>
   </si>
   <si>
@@ -1445,12 +1445,12 @@
     <t>$ 4,352.20</t>
   </si>
   <si>
+    <t>$ 327.49</t>
+  </si>
+  <si>
     <t>$ 136.33</t>
   </si>
   <si>
-    <t>$ 327.49</t>
-  </si>
-  <si>
     <t>$ 871.32</t>
   </si>
   <si>
@@ -1475,12 +1475,12 @@
     <t>$ 7,115.38</t>
   </si>
   <si>
+    <t>$ 752.28</t>
+  </si>
+  <si>
     <t>$ 194.52</t>
   </si>
   <si>
-    <t>$ 752.28</t>
-  </si>
-  <si>
     <t>$ 1,154.30</t>
   </si>
   <si>
@@ -1505,12 +1505,12 @@
     <t>$ 3,891.74</t>
   </si>
   <si>
+    <t>$ 277.39</t>
+  </si>
+  <si>
     <t>$ 99.12</t>
   </si>
   <si>
-    <t>$ 277.39</t>
-  </si>
-  <si>
     <t>$ 584.01</t>
   </si>
   <si>
@@ -2519,13 +2519,13 @@
     <t>$ 52,234.48</t>
   </si>
   <si>
+    <t>Depto</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
     <t>Nombre</t>
-  </si>
-  <si>
-    <t>Numero</t>
-  </si>
-  <si>
-    <t>Depto</t>
   </si>
   <si>
     <t>Fecha Inicio</t>
@@ -3653,11 +3653,11 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -3690,16 +3690,16 @@
         <v>39</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>41</v>
@@ -3727,11 +3727,11 @@
       <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
@@ -3743,16 +3743,16 @@
         <v>48</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>37</v>
@@ -3764,16 +3764,16 @@
         <v>53</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>55</v>
@@ -3801,11 +3801,11 @@
       <c r="A9" t="s">
         <v>59</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>60</v>
@@ -3817,16 +3817,16 @@
         <v>62</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>37</v>
@@ -3838,16 +3838,16 @@
         <v>67</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>69</v>
@@ -3875,11 +3875,11 @@
       <c r="A10" t="s">
         <v>73</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10">
         <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>74</v>
       </c>
       <c r="D10" t="s">
         <v>75</v>
@@ -3891,16 +3891,16 @@
         <v>77</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>37</v>
@@ -3912,22 +3912,22 @@
         <v>82</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>85</v>
@@ -3949,11 +3949,11 @@
       <c r="A11" t="s">
         <v>87</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11">
         <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
       </c>
       <c r="D11" t="s">
         <v>89</v>
@@ -3965,16 +3965,16 @@
         <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>37</v>
@@ -3986,16 +3986,16 @@
         <v>95</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>93</v>
       </c>
       <c r="P11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>97</v>
@@ -4023,11 +4023,11 @@
       <c r="A12" t="s">
         <v>101</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12">
         <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>74</v>
       </c>
       <c r="D12" t="s">
         <v>102</v>
@@ -4039,16 +4039,16 @@
         <v>104</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>37</v>
@@ -4060,16 +4060,16 @@
         <v>108</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>106</v>
       </c>
       <c r="P12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>110</v>
@@ -4097,11 +4097,11 @@
       <c r="A13" t="s">
         <v>114</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13">
         <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>115</v>
       </c>
       <c r="D13" t="s">
         <v>116</v>
@@ -4113,16 +4113,16 @@
         <v>118</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>37</v>
@@ -4131,25 +4131,25 @@
         <v>121</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>120</v>
       </c>
       <c r="P13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="R13" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>125</v>
@@ -4171,11 +4171,11 @@
       <c r="A14" t="s">
         <v>127</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
         <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
       </c>
       <c r="D14" t="s">
         <v>128</v>
@@ -4187,16 +4187,16 @@
         <v>130</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>37</v>
@@ -4208,16 +4208,16 @@
         <v>134</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>132</v>
       </c>
       <c r="P14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>136</v>
@@ -4245,11 +4245,11 @@
       <c r="A15" t="s">
         <v>140</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15">
         <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>141</v>
       </c>
       <c r="D15" t="s">
         <v>142</v>
@@ -4261,16 +4261,16 @@
         <v>144</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>37</v>
@@ -4279,25 +4279,25 @@
         <v>147</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>146</v>
       </c>
       <c r="P15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="R15" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>151</v>
@@ -4319,11 +4319,11 @@
       <c r="A16" t="s">
         <v>153</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
         <v>73</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>154</v>
@@ -4335,16 +4335,16 @@
         <v>156</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>37</v>
@@ -4353,25 +4353,25 @@
         <v>160</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>163</v>
@@ -4393,11 +4393,11 @@
       <c r="A17" t="s">
         <v>165</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
         <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>166</v>
@@ -4409,16 +4409,16 @@
         <v>168</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>37</v>
@@ -4427,25 +4427,25 @@
         <v>171</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>170</v>
       </c>
       <c r="P17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="R17" s="1" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>174</v>
@@ -4467,11 +4467,11 @@
       <c r="A18" t="s">
         <v>176</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
         <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
       </c>
       <c r="D18" t="s">
         <v>177</v>
@@ -4483,16 +4483,16 @@
         <v>179</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>37</v>
@@ -4501,25 +4501,25 @@
         <v>182</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>181</v>
       </c>
       <c r="P18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="R18" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>186</v>
@@ -4541,11 +4541,11 @@
       <c r="A19" t="s">
         <v>188</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19">
         <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>189</v>
       </c>
       <c r="D19" t="s">
         <v>190</v>
@@ -4557,16 +4557,16 @@
         <v>192</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>195</v>
@@ -4575,25 +4575,25 @@
         <v>196</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>194</v>
       </c>
       <c r="P19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="R19" s="1" t="s">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>199</v>
@@ -4615,11 +4615,11 @@
       <c r="A20" t="s">
         <v>201</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20">
         <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>141</v>
       </c>
       <c r="D20" t="s">
         <v>202</v>
@@ -4631,16 +4631,16 @@
         <v>204</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>205</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>206</v>
+        <v>36</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>37</v>
@@ -4649,25 +4649,25 @@
         <v>207</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>206</v>
       </c>
       <c r="P20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="R20" s="1" t="s">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>210</v>
@@ -4689,11 +4689,11 @@
       <c r="A21" t="s">
         <v>212</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21">
         <v>79</v>
-      </c>
-      <c r="C21" t="s">
-        <v>141</v>
       </c>
       <c r="D21" t="s">
         <v>213</v>
@@ -4705,16 +4705,16 @@
         <v>215</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>216</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>37</v>
@@ -4723,25 +4723,25 @@
         <v>218</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>217</v>
       </c>
       <c r="P21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="R21" s="1" t="s">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>221</v>
@@ -4763,11 +4763,11 @@
       <c r="A22" t="s">
         <v>223</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
         <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
       </c>
       <c r="D22" t="s">
         <v>224</v>
@@ -4779,16 +4779,16 @@
         <v>226</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>37</v>
@@ -4797,22 +4797,22 @@
         <v>229</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>37</v>
+        <v>230</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>228</v>
       </c>
       <c r="P22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="R22" s="1" t="s">
-        <v>231</v>
+        <v>37</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>37</v>
@@ -4837,11 +4837,11 @@
       <c r="A23" t="s">
         <v>234</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23">
         <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>141</v>
       </c>
       <c r="D23" t="s">
         <v>235</v>
@@ -4853,16 +4853,16 @@
         <v>237</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>37</v>
@@ -4874,22 +4874,22 @@
         <v>241</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>239</v>
       </c>
       <c r="P23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="R23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S23" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>244</v>
@@ -4911,11 +4911,11 @@
       <c r="A24" t="s">
         <v>246</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24">
         <v>88</v>
-      </c>
-      <c r="C24" t="s">
-        <v>141</v>
       </c>
       <c r="D24" t="s">
         <v>247</v>
@@ -4927,16 +4927,16 @@
         <v>249</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>37</v>
@@ -4945,25 +4945,25 @@
         <v>252</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>251</v>
       </c>
       <c r="P24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="R24" s="1" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>255</v>
@@ -4985,11 +4985,11 @@
       <c r="A25" t="s">
         <v>257</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25">
         <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>141</v>
       </c>
       <c r="D25" t="s">
         <v>258</v>
@@ -5001,16 +5001,16 @@
         <v>260</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>262</v>
+        <v>36</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>37</v>
@@ -5019,25 +5019,25 @@
         <v>263</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>262</v>
       </c>
       <c r="P25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Q25" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="R25" s="1" t="s">
-        <v>265</v>
+        <v>37</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>266</v>
@@ -5059,11 +5059,11 @@
       <c r="A26" t="s">
         <v>268</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26">
         <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
       </c>
       <c r="D26" t="s">
         <v>269</v>
@@ -5075,16 +5075,16 @@
         <v>215</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>216</v>
+        <v>37</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>37</v>
@@ -5093,25 +5093,25 @@
         <v>218</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>33</v>
+        <v>271</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>217</v>
       </c>
       <c r="P26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="Q26" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="R26" s="1" t="s">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>272</v>
@@ -5133,11 +5133,11 @@
       <c r="A27" t="s">
         <v>274</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
         <v>98</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
       </c>
       <c r="D27" t="s">
         <v>275</v>
@@ -5149,16 +5149,16 @@
         <v>277</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>33</v>
+        <v>278</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>37</v>
+        <v>279</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>278</v>
+        <v>37</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>279</v>
+        <v>36</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>37</v>
@@ -5167,25 +5167,25 @@
         <v>280</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>37</v>
+        <v>281</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>279</v>
       </c>
       <c r="P27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="R27" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>283</v>
+        <v>37</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>284</v>
@@ -5207,11 +5207,11 @@
       <c r="A28" t="s">
         <v>286</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28">
         <v>99</v>
-      </c>
-      <c r="C28" t="s">
-        <v>141</v>
       </c>
       <c r="D28" t="s">
         <v>287</v>
@@ -5223,16 +5223,16 @@
         <v>289</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>290</v>
+        <v>37</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>37</v>
@@ -5241,25 +5241,25 @@
         <v>292</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>33</v>
+        <v>294</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>291</v>
       </c>
       <c r="P28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q28" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="R28" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>295</v>
+        <v>37</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>296</v>
@@ -5281,11 +5281,11 @@
       <c r="A29" t="s">
         <v>299</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29">
         <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>189</v>
       </c>
       <c r="D29" t="s">
         <v>300</v>
@@ -5297,16 +5297,16 @@
         <v>302</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>33</v>
+        <v>303</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>303</v>
+        <v>37</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>304</v>
+        <v>36</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>37</v>
@@ -5318,22 +5318,22 @@
         <v>306</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>33</v>
+        <v>307</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>304</v>
       </c>
       <c r="P29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="R29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>309</v>
@@ -5355,11 +5355,11 @@
       <c r="A30" t="s">
         <v>311</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>312</v>
+      </c>
+      <c r="C30">
         <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>312</v>
       </c>
       <c r="D30" t="s">
         <v>313</v>
@@ -5371,16 +5371,16 @@
         <v>315</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>33</v>
+        <v>316</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>37</v>
+        <v>317</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>316</v>
+        <v>37</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>317</v>
+        <v>36</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>37</v>
@@ -5392,22 +5392,22 @@
         <v>319</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>33</v>
+        <v>320</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>317</v>
       </c>
       <c r="P30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q30" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="Q30" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="R30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>322</v>
@@ -5429,11 +5429,11 @@
       <c r="A31" t="s">
         <v>324</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>95</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
       </c>
       <c r="D31" t="s">
         <v>325</v>
@@ -5445,16 +5445,16 @@
         <v>289</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>290</v>
+        <v>37</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>37</v>
@@ -5463,25 +5463,25 @@
         <v>292</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>33</v>
+        <v>294</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>291</v>
       </c>
       <c r="P31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q31" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="Q31" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="R31" s="1" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>327</v>
@@ -5503,11 +5503,11 @@
       <c r="A32" t="s">
         <v>329</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32">
         <v>97</v>
-      </c>
-      <c r="C32" t="s">
-        <v>189</v>
       </c>
       <c r="D32" t="s">
         <v>330</v>
@@ -5519,16 +5519,16 @@
         <v>332</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>33</v>
+        <v>333</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>37</v>
+        <v>334</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>333</v>
+        <v>37</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>334</v>
+        <v>36</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>37</v>
@@ -5537,25 +5537,25 @@
         <v>335</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>95</v>
+        <v>336</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>33</v>
+        <v>337</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>334</v>
       </c>
       <c r="P32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q32" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Q32" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="R32" s="1" t="s">
-        <v>337</v>
+        <v>37</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>338</v>
@@ -5577,11 +5577,11 @@
       <c r="A33" t="s">
         <v>340</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33">
         <v>12</v>
-      </c>
-      <c r="C33" t="s">
-        <v>141</v>
       </c>
       <c r="D33" t="s">
         <v>341</v>
@@ -5593,16 +5593,16 @@
         <v>343</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>33</v>
+        <v>344</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>344</v>
+        <v>37</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>345</v>
+        <v>36</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>37</v>
@@ -5611,25 +5611,25 @@
         <v>346</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>33</v>
+        <v>348</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>345</v>
       </c>
       <c r="P33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="Q33" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="R33" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>349</v>
+        <v>37</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>350</v>
@@ -5651,11 +5651,11 @@
       <c r="A34" t="s">
         <v>352</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34">
         <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>115</v>
       </c>
       <c r="D34" t="s">
         <v>353</v>
@@ -5667,16 +5667,16 @@
         <v>179</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>37</v>
@@ -5685,25 +5685,25 @@
         <v>182</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>33</v>
+        <v>355</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>181</v>
       </c>
       <c r="P34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q34" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="Q34" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="R34" s="1" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>356</v>
@@ -5725,11 +5725,11 @@
       <c r="A35" t="s">
         <v>358</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35">
         <v>57</v>
-      </c>
-      <c r="C35" t="s">
-        <v>141</v>
       </c>
       <c r="D35" t="s">
         <v>359</v>
@@ -5741,16 +5741,16 @@
         <v>361</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>33</v>
+        <v>362</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>37</v>
+        <v>363</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>362</v>
+        <v>37</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>37</v>
@@ -5759,25 +5759,25 @@
         <v>364</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>241</v>
+        <v>365</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>33</v>
+        <v>366</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>363</v>
       </c>
       <c r="P35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="Q35" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="R35" s="1" t="s">
-        <v>366</v>
+        <v>37</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>367</v>
@@ -5799,11 +5799,11 @@
       <c r="A36" t="s">
         <v>369</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36">
         <v>104</v>
-      </c>
-      <c r="C36" t="s">
-        <v>141</v>
       </c>
       <c r="D36" t="s">
         <v>370</v>
@@ -5815,16 +5815,16 @@
         <v>372</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>33</v>
+        <v>373</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>37</v>
+        <v>374</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>373</v>
+        <v>37</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>374</v>
+        <v>36</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>37</v>
@@ -5833,25 +5833,25 @@
         <v>375</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>53</v>
+        <v>376</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>33</v>
+        <v>377</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>374</v>
       </c>
       <c r="P36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q36" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="Q36" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="R36" s="1" t="s">
-        <v>377</v>
+        <v>37</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>378</v>
@@ -5873,11 +5873,11 @@
       <c r="A37" t="s">
         <v>381</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37">
         <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>141</v>
       </c>
       <c r="D37" t="s">
         <v>382</v>
@@ -5889,16 +5889,16 @@
         <v>384</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>33</v>
+        <v>385</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>37</v>
+        <v>386</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>385</v>
+        <v>37</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>386</v>
+        <v>36</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>37</v>
@@ -5910,22 +5910,22 @@
         <v>388</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>386</v>
       </c>
       <c r="P37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="Q37" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="R37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S37" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>390</v>
@@ -5947,11 +5947,11 @@
       <c r="A38" t="s">
         <v>392</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38">
         <v>80</v>
-      </c>
-      <c r="C38" t="s">
-        <v>115</v>
       </c>
       <c r="D38" t="s">
         <v>393</v>
@@ -5963,16 +5963,16 @@
         <v>395</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>33</v>
+        <v>396</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>37</v>
+        <v>397</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>396</v>
+        <v>37</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>397</v>
+        <v>36</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>37</v>
@@ -5981,25 +5981,25 @@
         <v>398</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>134</v>
+        <v>399</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>33</v>
+        <v>400</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>397</v>
       </c>
       <c r="P38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q38" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="Q38" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="R38" s="1" t="s">
-        <v>400</v>
+        <v>37</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>401</v>
@@ -6021,11 +6021,11 @@
       <c r="A39" t="s">
         <v>403</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39">
         <v>94</v>
-      </c>
-      <c r="C39" t="s">
-        <v>88</v>
       </c>
       <c r="D39" t="s">
         <v>404</v>
@@ -6037,16 +6037,16 @@
         <v>406</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>241</v>
+        <v>408</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>407</v>
+        <v>243</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>408</v>
+        <v>36</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>37</v>
@@ -6055,22 +6055,22 @@
         <v>409</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>37</v>
+        <v>410</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>33</v>
+        <v>411</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>408</v>
       </c>
       <c r="P39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q39" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="Q39" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="R39" s="1" t="s">
-        <v>411</v>
+        <v>37</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>37</v>
@@ -6095,11 +6095,11 @@
       <c r="A40" t="s">
         <v>414</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40">
         <v>90</v>
-      </c>
-      <c r="C40" t="s">
-        <v>141</v>
       </c>
       <c r="D40" t="s">
         <v>415</v>
@@ -6111,16 +6111,16 @@
         <v>417</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>33</v>
+        <v>418</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>37</v>
+        <v>419</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>418</v>
+        <v>37</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>419</v>
+        <v>36</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>37</v>
@@ -6129,25 +6129,25 @@
         <v>420</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>34</v>
+        <v>421</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>33</v>
+        <v>422</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>419</v>
       </c>
       <c r="P40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q40" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="Q40" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="R40" s="1" t="s">
-        <v>422</v>
+        <v>37</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>423</v>
@@ -6169,11 +6169,11 @@
       <c r="A41" t="s">
         <v>425</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="s">
+        <v>189</v>
+      </c>
+      <c r="C41">
         <v>45</v>
-      </c>
-      <c r="C41" t="s">
-        <v>189</v>
       </c>
       <c r="D41" t="s">
         <v>426</v>
@@ -6185,16 +6185,16 @@
         <v>118</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>37</v>
@@ -6203,22 +6203,22 @@
         <v>121</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>33</v>
+        <v>428</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>120</v>
       </c>
       <c r="P41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q41" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q41" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="R41" s="1" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>37</v>
@@ -6243,11 +6243,11 @@
       <c r="A42" t="s">
         <v>431</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42">
         <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>189</v>
       </c>
       <c r="D42" t="s">
         <v>432</v>
@@ -6259,16 +6259,16 @@
         <v>434</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>37</v>
+        <v>435</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>37</v>
+        <v>436</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>435</v>
+        <v>37</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>436</v>
+        <v>37</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>37</v>
@@ -6277,25 +6277,25 @@
         <v>437</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>319</v>
+        <v>438</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>37</v>
+        <v>198</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>436</v>
       </c>
       <c r="P42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q42" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="Q42" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="R42" s="1" t="s">
-        <v>438</v>
+        <v>37</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="T42" s="1" t="s">
         <v>439</v>
@@ -6317,11 +6317,11 @@
       <c r="A43" t="s">
         <v>441</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43">
         <v>66</v>
-      </c>
-      <c r="C43" t="s">
-        <v>189</v>
       </c>
       <c r="D43" t="s">
         <v>442</v>
@@ -6333,16 +6333,16 @@
         <v>444</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>37</v>
+        <v>445</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>37</v>
+        <v>446</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>445</v>
+        <v>37</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>446</v>
+        <v>37</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>37</v>
@@ -6351,22 +6351,22 @@
         <v>447</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>37</v>
+        <v>448</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>37</v>
+        <v>449</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>446</v>
       </c>
       <c r="P43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q43" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="Q43" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="R43" s="1" t="s">
-        <v>449</v>
+        <v>37</v>
       </c>
       <c r="S43" s="1" t="s">
         <v>37</v>
@@ -6391,11 +6391,11 @@
       <c r="A44" t="s">
         <v>452</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44">
         <v>108</v>
-      </c>
-      <c r="C44" t="s">
-        <v>29</v>
       </c>
       <c r="D44" t="s">
         <v>453</v>
@@ -6407,16 +6407,16 @@
         <v>455</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>33</v>
+        <v>456</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>456</v>
+        <v>35</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>37</v>
@@ -6425,22 +6425,22 @@
         <v>457</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>37</v>
+        <v>458</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>33</v>
+        <v>459</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>458</v>
+        <v>37</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>459</v>
+        <v>37</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>37</v>
@@ -6465,11 +6465,11 @@
       <c r="A45" t="s">
         <v>462</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45">
         <v>109</v>
-      </c>
-      <c r="C45" t="s">
-        <v>74</v>
       </c>
       <c r="D45" t="s">
         <v>463</v>
@@ -6481,16 +6481,16 @@
         <v>465</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>33</v>
+        <v>466</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>466</v>
+        <v>243</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>37</v>
@@ -6499,22 +6499,22 @@
         <v>467</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>37</v>
+        <v>468</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>33</v>
+        <v>469</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>468</v>
+        <v>37</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>469</v>
+        <v>37</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>37</v>
@@ -6539,11 +6539,11 @@
       <c r="A46" t="s">
         <v>472</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46">
         <v>105</v>
-      </c>
-      <c r="C46" t="s">
-        <v>29</v>
       </c>
       <c r="D46" t="s">
         <v>473</v>
@@ -6555,16 +6555,16 @@
         <v>455</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>33</v>
+        <v>456</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>456</v>
+        <v>37</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>37</v>
@@ -6573,25 +6573,25 @@
         <v>475</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>39</v>
+        <v>476</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>33</v>
+        <v>477</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>476</v>
+        <v>37</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>477</v>
+        <v>37</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>478</v>
@@ -6613,11 +6613,11 @@
       <c r="A47" t="s">
         <v>480</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="s">
+        <v>312</v>
+      </c>
+      <c r="C47">
         <v>107</v>
-      </c>
-      <c r="C47" t="s">
-        <v>312</v>
       </c>
       <c r="D47" t="s">
         <v>481</v>
@@ -6629,16 +6629,16 @@
         <v>483</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>33</v>
+        <v>484</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>484</v>
+        <v>37</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>37</v>
@@ -6647,22 +6647,22 @@
         <v>485</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>37</v>
+        <v>486</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>33</v>
+        <v>487</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>37</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>486</v>
+        <v>37</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>487</v>
+        <v>37</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>37</v>
@@ -6687,11 +6687,11 @@
       <c r="A48" t="s">
         <v>490</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48">
         <v>106</v>
-      </c>
-      <c r="C48" t="s">
-        <v>141</v>
       </c>
       <c r="D48" t="s">
         <v>491</v>
@@ -6703,16 +6703,16 @@
         <v>493</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>33</v>
+        <v>494</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>494</v>
+        <v>37</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>37</v>
@@ -6721,22 +6721,22 @@
         <v>495</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>37</v>
+        <v>496</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>33</v>
+        <v>497</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>496</v>
+        <v>37</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>497</v>
+        <v>37</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>37</v>
@@ -6800,7 +6800,7 @@
         <v>10</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I54" t="s">
         <v>503</v>
@@ -6812,10 +6812,10 @@
         <v>13</v>
       </c>
       <c r="L54" t="s">
-        <v>11</v>
+        <v>505</v>
       </c>
       <c r="M54" t="s">
-        <v>505</v>
+        <v>12</v>
       </c>
       <c r="N54" t="s">
         <v>14</v>
@@ -6824,22 +6824,22 @@
         <v>15</v>
       </c>
       <c r="P54" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q54" t="s">
         <v>17</v>
       </c>
-      <c r="Q54" t="s">
-        <v>16</v>
-      </c>
       <c r="R54" t="s">
+        <v>18</v>
+      </c>
+      <c r="S54" t="s">
+        <v>19</v>
+      </c>
+      <c r="T54" t="s">
+        <v>20</v>
+      </c>
+      <c r="U54" t="s">
         <v>21</v>
-      </c>
-      <c r="S54" t="s">
-        <v>20</v>
-      </c>
-      <c r="T54" t="s">
-        <v>18</v>
-      </c>
-      <c r="U54" t="s">
-        <v>19</v>
       </c>
       <c r="V54" t="s">
         <v>22</v>
@@ -6864,11 +6864,11 @@
       <c r="A55" t="s">
         <v>506</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55">
         <v>20</v>
-      </c>
-      <c r="C55" t="s">
-        <v>74</v>
       </c>
       <c r="D55" t="s">
         <v>102</v>
@@ -6880,10 +6880,10 @@
         <v>104</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>507</v>
@@ -6892,7 +6892,7 @@
         <v>508</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>37</v>
@@ -6907,22 +6907,22 @@
         <v>509</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>33</v>
+        <v>510</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>510</v>
+        <v>106</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="T55" s="1" t="s">
         <v>106</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="V55" s="1" t="s">
         <v>111</v>
@@ -6947,11 +6947,11 @@
       <c r="A56" t="s">
         <v>513</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56">
         <v>46</v>
-      </c>
-      <c r="C56" t="s">
-        <v>29</v>
       </c>
       <c r="D56" t="s">
         <v>166</v>
@@ -6963,10 +6963,10 @@
         <v>168</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>37</v>
@@ -6975,13 +6975,13 @@
         <v>508</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>39</v>
+        <v>514</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>514</v>
+        <v>42</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>37</v>
@@ -6990,25 +6990,25 @@
         <v>515</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>33</v>
+        <v>516</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>516</v>
+        <v>170</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="T56" s="1" t="s">
         <v>170</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="W56" s="1" t="s">
         <v>517</v>
@@ -7030,11 +7030,11 @@
       <c r="A57" t="s">
         <v>520</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57">
         <v>19</v>
-      </c>
-      <c r="C57" t="s">
-        <v>29</v>
       </c>
       <c r="D57" t="s">
         <v>60</v>
@@ -7046,7 +7046,7 @@
         <v>62</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>64</v>
@@ -7058,13 +7058,13 @@
         <v>508</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>37</v>
@@ -7073,22 +7073,22 @@
         <v>521</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>33</v>
+        <v>522</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>522</v>
+        <v>64</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>70</v>
@@ -7113,11 +7113,11 @@
       <c r="A58" t="s">
         <v>525</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58">
         <v>21</v>
-      </c>
-      <c r="C58" t="s">
-        <v>29</v>
       </c>
       <c r="D58" t="s">
         <v>46</v>
@@ -7129,7 +7129,7 @@
         <v>48</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>50</v>
@@ -7141,13 +7141,13 @@
         <v>508</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="L58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M58" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>37</v>
@@ -7156,22 +7156,22 @@
         <v>527</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>33</v>
+        <v>528</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>528</v>
+        <v>50</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V58" s="1" t="s">
         <v>56</v>
@@ -7196,11 +7196,11 @@
       <c r="A59" t="s">
         <v>531</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59">
         <v>48</v>
-      </c>
-      <c r="C59" t="s">
-        <v>141</v>
       </c>
       <c r="D59" t="s">
         <v>142</v>
@@ -7212,10 +7212,10 @@
         <v>144</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>37</v>
@@ -7224,7 +7224,7 @@
         <v>508</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>37</v>
@@ -7239,25 +7239,25 @@
         <v>532</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>33</v>
+        <v>533</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>533</v>
+        <v>146</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="T59" s="1" t="s">
         <v>146</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="W59" s="1" t="s">
         <v>534</v>
@@ -7279,11 +7279,11 @@
       <c r="A60" t="s">
         <v>536</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60">
         <v>97</v>
-      </c>
-      <c r="C60" t="s">
-        <v>189</v>
       </c>
       <c r="D60" t="s">
         <v>330</v>
@@ -7295,10 +7295,10 @@
         <v>332</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>33</v>
+        <v>333</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>37</v>
@@ -7307,7 +7307,7 @@
         <v>508</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>334</v>
+        <v>36</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>37</v>
@@ -7322,25 +7322,25 @@
         <v>538</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>33</v>
+        <v>539</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>95</v>
+        <v>337</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>539</v>
+        <v>334</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>336</v>
+        <v>36</v>
       </c>
       <c r="T60" s="1" t="s">
         <v>334</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>334</v>
+        <v>37</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="W60" s="1" t="s">
         <v>540</v>
@@ -7362,11 +7362,11 @@
       <c r="A61" t="s">
         <v>542</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61">
         <v>31</v>
-      </c>
-      <c r="C61" t="s">
-        <v>74</v>
       </c>
       <c r="D61" t="s">
         <v>75</v>
@@ -7378,7 +7378,7 @@
         <v>77</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>79</v>
@@ -7390,13 +7390,13 @@
         <v>508</v>
       </c>
       <c r="K61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M61" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>37</v>
@@ -7405,25 +7405,25 @@
         <v>543</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>33</v>
+        <v>544</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="W61" s="1" t="s">
         <v>545</v>
@@ -7445,11 +7445,11 @@
       <c r="A62" t="s">
         <v>547</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62">
         <v>73</v>
-      </c>
-      <c r="C62" t="s">
-        <v>29</v>
       </c>
       <c r="D62" t="s">
         <v>154</v>
@@ -7461,7 +7461,7 @@
         <v>156</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>158</v>
@@ -7473,13 +7473,13 @@
         <v>508</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>37</v>
@@ -7488,25 +7488,25 @@
         <v>548</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>33</v>
+        <v>549</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>549</v>
+        <v>158</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="W62" s="1" t="s">
         <v>550</v>
@@ -7528,11 +7528,11 @@
       <c r="A63" t="s">
         <v>552</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63">
         <v>23</v>
-      </c>
-      <c r="C63" t="s">
-        <v>29</v>
       </c>
       <c r="D63" t="s">
         <v>30</v>
@@ -7547,7 +7547,7 @@
         <v>33</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>37</v>
@@ -7571,22 +7571,22 @@
         <v>553</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>33</v>
+        <v>554</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>554</v>
+        <v>34</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="V63" s="1" t="s">
         <v>42</v>
@@ -7611,11 +7611,11 @@
       <c r="A64" t="s">
         <v>557</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64">
         <v>98</v>
-      </c>
-      <c r="C64" t="s">
-        <v>29</v>
       </c>
       <c r="D64" t="s">
         <v>275</v>
@@ -7627,10 +7627,10 @@
         <v>277</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>33</v>
+        <v>278</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>37</v>
@@ -7639,13 +7639,13 @@
         <v>508</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>279</v>
+        <v>36</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>37</v>
@@ -7654,25 +7654,25 @@
         <v>558</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>33</v>
+        <v>559</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>559</v>
+        <v>279</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="T64" s="1" t="s">
         <v>279</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>283</v>
+        <v>37</v>
       </c>
       <c r="W64" s="1" t="s">
         <v>560</v>
@@ -7694,11 +7694,11 @@
       <c r="A65" t="s">
         <v>562</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65">
         <v>30</v>
-      </c>
-      <c r="C65" t="s">
-        <v>88</v>
       </c>
       <c r="D65" t="s">
         <v>89</v>
@@ -7710,10 +7710,10 @@
         <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>37</v>
@@ -7722,7 +7722,7 @@
         <v>508</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>37</v>
@@ -7737,22 +7737,22 @@
         <v>563</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>33</v>
+        <v>564</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>564</v>
+        <v>93</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="T65" s="1" t="s">
         <v>93</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="V65" s="1" t="s">
         <v>98</v>
@@ -7777,11 +7777,11 @@
       <c r="A66" t="s">
         <v>567</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66">
         <v>17</v>
-      </c>
-      <c r="C66" t="s">
-        <v>29</v>
       </c>
       <c r="D66" t="s">
         <v>128</v>
@@ -7793,10 +7793,10 @@
         <v>130</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>37</v>
@@ -7805,7 +7805,7 @@
         <v>508</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>37</v>
@@ -7820,22 +7820,22 @@
         <v>568</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>33</v>
+        <v>569</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>569</v>
+        <v>132</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="T66" s="1" t="s">
         <v>132</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>137</v>
@@ -7860,11 +7860,11 @@
       <c r="A67" t="s">
         <v>572</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67">
         <v>52</v>
-      </c>
-      <c r="C67" t="s">
-        <v>29</v>
       </c>
       <c r="D67" t="s">
         <v>177</v>
@@ -7876,10 +7876,10 @@
         <v>179</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>37</v>
@@ -7888,7 +7888,7 @@
         <v>508</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>37</v>
@@ -7903,25 +7903,25 @@
         <v>573</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>33</v>
+        <v>574</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>574</v>
+        <v>181</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="T67" s="1" t="s">
         <v>181</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="W67" s="1" t="s">
         <v>575</v>
@@ -7943,11 +7943,11 @@
       <c r="A68" t="s">
         <v>577</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68">
         <v>83</v>
-      </c>
-      <c r="C68" t="s">
-        <v>189</v>
       </c>
       <c r="D68" t="s">
         <v>190</v>
@@ -7959,10 +7959,10 @@
         <v>192</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>37</v>
@@ -7971,7 +7971,7 @@
         <v>508</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>37</v>
@@ -7986,25 +7986,25 @@
         <v>578</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>33</v>
+        <v>579</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>579</v>
+        <v>194</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="T68" s="1" t="s">
         <v>194</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="W68" s="1" t="s">
         <v>580</v>
@@ -8026,11 +8026,11 @@
       <c r="A69" t="s">
         <v>582</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69">
         <v>26</v>
-      </c>
-      <c r="C69" t="s">
-        <v>115</v>
       </c>
       <c r="D69" t="s">
         <v>116</v>
@@ -8042,10 +8042,10 @@
         <v>118</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>37</v>
@@ -8054,7 +8054,7 @@
         <v>508</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>37</v>
@@ -8069,25 +8069,25 @@
         <v>583</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>33</v>
+        <v>584</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>584</v>
+        <v>120</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="T69" s="1" t="s">
         <v>120</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="W69" s="1" t="s">
         <v>585</v>
@@ -8109,11 +8109,11 @@
       <c r="A70" t="s">
         <v>587</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70">
         <v>7</v>
-      </c>
-      <c r="C70" t="s">
-        <v>141</v>
       </c>
       <c r="D70" t="s">
         <v>382</v>
@@ -8125,10 +8125,10 @@
         <v>384</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>33</v>
+        <v>385</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>37</v>
@@ -8137,7 +8137,7 @@
         <v>508</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>386</v>
+        <v>36</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>37</v>
@@ -8152,25 +8152,25 @@
         <v>589</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>33</v>
+        <v>590</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>388</v>
+        <v>198</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>590</v>
+        <v>386</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="T70" s="1" t="s">
         <v>386</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>386</v>
+        <v>37</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>37</v>
+        <v>389</v>
       </c>
       <c r="W70" s="1" t="s">
         <v>591</v>
@@ -8192,11 +8192,11 @@
       <c r="A71" t="s">
         <v>593</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71">
         <v>12</v>
-      </c>
-      <c r="C71" t="s">
-        <v>141</v>
       </c>
       <c r="D71" t="s">
         <v>341</v>
@@ -8208,10 +8208,10 @@
         <v>343</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>33</v>
+        <v>344</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>37</v>
@@ -8220,7 +8220,7 @@
         <v>508</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>345</v>
+        <v>36</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>37</v>
@@ -8235,25 +8235,25 @@
         <v>594</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>33</v>
+        <v>595</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>37</v>
+        <v>348</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>595</v>
+        <v>345</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="T71" s="1" t="s">
         <v>345</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>349</v>
+        <v>37</v>
       </c>
       <c r="W71" s="1" t="s">
         <v>596</v>
@@ -8275,11 +8275,11 @@
       <c r="A72" t="s">
         <v>598</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72">
         <v>88</v>
-      </c>
-      <c r="C72" t="s">
-        <v>141</v>
       </c>
       <c r="D72" t="s">
         <v>247</v>
@@ -8291,10 +8291,10 @@
         <v>249</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>37</v>
@@ -8303,7 +8303,7 @@
         <v>508</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>37</v>
@@ -8318,25 +8318,25 @@
         <v>599</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>33</v>
+        <v>600</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>600</v>
+        <v>251</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="T72" s="1" t="s">
         <v>251</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="W72" s="1" t="s">
         <v>601</v>
@@ -8358,11 +8358,11 @@
       <c r="A73" t="s">
         <v>603</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73">
         <v>104</v>
-      </c>
-      <c r="C73" t="s">
-        <v>141</v>
       </c>
       <c r="D73" t="s">
         <v>370</v>
@@ -8374,10 +8374,10 @@
         <v>604</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>33</v>
+        <v>605</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>37</v>
@@ -8386,7 +8386,7 @@
         <v>508</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>606</v>
+        <v>36</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>37</v>
@@ -8401,25 +8401,25 @@
         <v>607</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>33</v>
+        <v>608</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>53</v>
+        <v>609</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>609</v>
+        <v>36</v>
       </c>
       <c r="T73" s="1" t="s">
         <v>606</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>606</v>
+        <v>37</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="W73" s="1" t="s">
         <v>610</v>
@@ -8441,11 +8441,11 @@
       <c r="A74" t="s">
         <v>612</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74">
         <v>95</v>
-      </c>
-      <c r="C74" t="s">
-        <v>29</v>
       </c>
       <c r="D74" t="s">
         <v>325</v>
@@ -8457,10 +8457,10 @@
         <v>289</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>37</v>
@@ -8469,7 +8469,7 @@
         <v>508</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>37</v>
@@ -8484,25 +8484,25 @@
         <v>613</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>33</v>
+        <v>614</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>67</v>
+        <v>294</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>614</v>
+        <v>291</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>293</v>
+        <v>36</v>
       </c>
       <c r="T74" s="1" t="s">
         <v>291</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>291</v>
+        <v>37</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="W74" s="1" t="s">
         <v>615</v>
@@ -8524,11 +8524,11 @@
       <c r="A75" t="s">
         <v>617</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="s">
+        <v>312</v>
+      </c>
+      <c r="C75">
         <v>9</v>
-      </c>
-      <c r="C75" t="s">
-        <v>312</v>
       </c>
       <c r="D75" t="s">
         <v>313</v>
@@ -8540,10 +8540,10 @@
         <v>315</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>33</v>
+        <v>316</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>37</v>
@@ -8552,7 +8552,7 @@
         <v>508</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>317</v>
+        <v>36</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>37</v>
@@ -8567,25 +8567,25 @@
         <v>618</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>33</v>
+        <v>619</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>619</v>
+        <v>317</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="T75" s="1" t="s">
         <v>317</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>317</v>
+        <v>37</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="W75" s="1" t="s">
         <v>620</v>
@@ -8607,11 +8607,11 @@
       <c r="A76" t="s">
         <v>622</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="s">
+        <v>189</v>
+      </c>
+      <c r="C76">
         <v>45</v>
-      </c>
-      <c r="C76" t="s">
-        <v>189</v>
       </c>
       <c r="D76" t="s">
         <v>426</v>
@@ -8623,10 +8623,10 @@
         <v>623</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>33</v>
+        <v>624</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>37</v>
@@ -8635,7 +8635,7 @@
         <v>508</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>625</v>
+        <v>36</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>37</v>
@@ -8650,22 +8650,22 @@
         <v>627</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>33</v>
+        <v>628</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>37</v>
+        <v>629</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>629</v>
+        <v>36</v>
       </c>
       <c r="T76" s="1" t="s">
         <v>625</v>
       </c>
       <c r="U76" s="1" t="s">
-        <v>625</v>
+        <v>37</v>
       </c>
       <c r="V76" s="1" t="s">
         <v>37</v>
@@ -8690,11 +8690,11 @@
       <c r="A77" t="s">
         <v>632</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77">
         <v>80</v>
-      </c>
-      <c r="C77" t="s">
-        <v>115</v>
       </c>
       <c r="D77" t="s">
         <v>393</v>
@@ -8706,10 +8706,10 @@
         <v>395</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>33</v>
+        <v>396</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>37</v>
@@ -8718,7 +8718,7 @@
         <v>508</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>397</v>
+        <v>36</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>37</v>
@@ -8733,25 +8733,25 @@
         <v>633</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>33</v>
+        <v>634</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>134</v>
+        <v>400</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>634</v>
+        <v>397</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>399</v>
+        <v>36</v>
       </c>
       <c r="T77" s="1" t="s">
         <v>397</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>397</v>
+        <v>37</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="W77" s="1" t="s">
         <v>635</v>
@@ -8773,11 +8773,11 @@
       <c r="A78" t="s">
         <v>637</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78">
         <v>94</v>
-      </c>
-      <c r="C78" t="s">
-        <v>88</v>
       </c>
       <c r="D78" t="s">
         <v>404</v>
@@ -8789,10 +8789,10 @@
         <v>406</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>37</v>
@@ -8801,13 +8801,13 @@
         <v>508</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>408</v>
+        <v>36</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>37</v>
@@ -8816,22 +8816,22 @@
         <v>638</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>33</v>
+        <v>639</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>37</v>
+        <v>411</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>639</v>
+        <v>408</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>410</v>
+        <v>36</v>
       </c>
       <c r="T78" s="1" t="s">
         <v>408</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>408</v>
+        <v>37</v>
       </c>
       <c r="V78" s="1" t="s">
         <v>37</v>
@@ -8856,11 +8856,11 @@
       <c r="A79" t="s">
         <v>642</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79">
         <v>13</v>
-      </c>
-      <c r="C79" t="s">
-        <v>141</v>
       </c>
       <c r="D79" t="s">
         <v>202</v>
@@ -8872,10 +8872,10 @@
         <v>204</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>37</v>
@@ -8884,7 +8884,7 @@
         <v>508</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>206</v>
+        <v>36</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>37</v>
@@ -8899,25 +8899,25 @@
         <v>643</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>33</v>
+        <v>644</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>644</v>
+        <v>206</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="T79" s="1" t="s">
         <v>206</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="W79" s="1" t="s">
         <v>645</v>
@@ -8939,11 +8939,11 @@
       <c r="A80" t="s">
         <v>647</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80">
         <v>90</v>
-      </c>
-      <c r="C80" t="s">
-        <v>141</v>
       </c>
       <c r="D80" t="s">
         <v>415</v>
@@ -8955,10 +8955,10 @@
         <v>417</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>33</v>
+        <v>418</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>37</v>
@@ -8967,7 +8967,7 @@
         <v>508</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>419</v>
+        <v>36</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>37</v>
@@ -8982,25 +8982,25 @@
         <v>648</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>33</v>
+        <v>649</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>34</v>
+        <v>422</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>649</v>
+        <v>419</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>421</v>
+        <v>36</v>
       </c>
       <c r="T80" s="1" t="s">
         <v>419</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>419</v>
+        <v>37</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W80" s="1" t="s">
         <v>650</v>
@@ -9022,11 +9022,11 @@
       <c r="A81" t="s">
         <v>652</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81">
         <v>6</v>
-      </c>
-      <c r="C81" t="s">
-        <v>141</v>
       </c>
       <c r="D81" t="s">
         <v>258</v>
@@ -9038,10 +9038,10 @@
         <v>260</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>37</v>
@@ -9050,7 +9050,7 @@
         <v>508</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>262</v>
+        <v>36</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>37</v>
@@ -9065,25 +9065,25 @@
         <v>653</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>33</v>
+        <v>654</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>654</v>
+        <v>262</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>264</v>
+        <v>36</v>
       </c>
       <c r="T81" s="1" t="s">
         <v>262</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>262</v>
+        <v>37</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="W81" s="1" t="s">
         <v>655</v>
@@ -9105,11 +9105,11 @@
       <c r="A82" t="s">
         <v>657</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82">
         <v>99</v>
-      </c>
-      <c r="C82" t="s">
-        <v>141</v>
       </c>
       <c r="D82" t="s">
         <v>287</v>
@@ -9121,10 +9121,10 @@
         <v>289</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>37</v>
@@ -9133,7 +9133,7 @@
         <v>508</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>37</v>
@@ -9148,25 +9148,25 @@
         <v>613</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>33</v>
+        <v>614</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>37</v>
+        <v>294</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>614</v>
+        <v>291</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>293</v>
+        <v>36</v>
       </c>
       <c r="T82" s="1" t="s">
         <v>291</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>295</v>
+        <v>37</v>
       </c>
       <c r="W82" s="1" t="s">
         <v>658</v>
@@ -9188,11 +9188,11 @@
       <c r="A83" t="s">
         <v>660</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83">
         <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>115</v>
       </c>
       <c r="D83" t="s">
         <v>353</v>
@@ -9204,10 +9204,10 @@
         <v>179</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>37</v>
@@ -9216,7 +9216,7 @@
         <v>508</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>37</v>
@@ -9231,25 +9231,25 @@
         <v>573</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>33</v>
+        <v>574</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>95</v>
+        <v>355</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>574</v>
+        <v>181</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>355</v>
+        <v>36</v>
       </c>
       <c r="T83" s="1" t="s">
         <v>181</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="W83" s="1" t="s">
         <v>661</v>
@@ -9271,11 +9271,11 @@
       <c r="A84" t="s">
         <v>663</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84">
         <v>2</v>
-      </c>
-      <c r="C84" t="s">
-        <v>189</v>
       </c>
       <c r="D84" t="s">
         <v>300</v>
@@ -9287,10 +9287,10 @@
         <v>302</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>33</v>
+        <v>303</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>37</v>
@@ -9299,7 +9299,7 @@
         <v>508</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>304</v>
+        <v>36</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>37</v>
@@ -9314,25 +9314,25 @@
         <v>664</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>33</v>
+        <v>665</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>665</v>
+        <v>304</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>307</v>
+        <v>36</v>
       </c>
       <c r="T84" s="1" t="s">
         <v>304</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>304</v>
+        <v>37</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>37</v>
+        <v>308</v>
       </c>
       <c r="W84" s="1" t="s">
         <v>666</v>
@@ -9354,11 +9354,11 @@
       <c r="A85" t="s">
         <v>668</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85">
         <v>79</v>
-      </c>
-      <c r="C85" t="s">
-        <v>141</v>
       </c>
       <c r="D85" t="s">
         <v>213</v>
@@ -9370,10 +9370,10 @@
         <v>215</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>37</v>
@@ -9382,7 +9382,7 @@
         <v>508</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>37</v>
@@ -9397,25 +9397,25 @@
         <v>669</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>33</v>
+        <v>670</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>670</v>
+        <v>217</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="T85" s="1" t="s">
         <v>217</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="W85" s="1" t="s">
         <v>671</v>
@@ -9437,11 +9437,11 @@
       <c r="A86" t="s">
         <v>673</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="s">
+        <v>141</v>
+      </c>
+      <c r="C86">
         <v>57</v>
-      </c>
-      <c r="C86" t="s">
-        <v>141</v>
       </c>
       <c r="D86" t="s">
         <v>359</v>
@@ -9453,10 +9453,10 @@
         <v>361</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>33</v>
+        <v>362</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>37</v>
@@ -9465,7 +9465,7 @@
         <v>508</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>37</v>
@@ -9480,25 +9480,25 @@
         <v>674</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>33</v>
+        <v>675</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>241</v>
+        <v>366</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>675</v>
+        <v>363</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>365</v>
+        <v>36</v>
       </c>
       <c r="T86" s="1" t="s">
         <v>363</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>363</v>
+        <v>37</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="W86" s="1" t="s">
         <v>676</v>
@@ -9520,11 +9520,11 @@
       <c r="A87" t="s">
         <v>678</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87">
         <v>39</v>
-      </c>
-      <c r="C87" t="s">
-        <v>74</v>
       </c>
       <c r="D87" t="s">
         <v>269</v>
@@ -9536,10 +9536,10 @@
         <v>215</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>37</v>
@@ -9548,7 +9548,7 @@
         <v>508</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>37</v>
@@ -9563,25 +9563,25 @@
         <v>669</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>33</v>
+        <v>670</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>95</v>
+        <v>271</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>670</v>
+        <v>217</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>271</v>
+        <v>36</v>
       </c>
       <c r="T87" s="1" t="s">
         <v>217</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="V87" s="1" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="W87" s="1" t="s">
         <v>679</v>
@@ -9603,11 +9603,11 @@
       <c r="A88" t="s">
         <v>681</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88">
         <v>60</v>
-      </c>
-      <c r="C88" t="s">
-        <v>29</v>
       </c>
       <c r="D88" t="s">
         <v>224</v>
@@ -9619,10 +9619,10 @@
         <v>226</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>37</v>
@@ -9631,13 +9631,13 @@
         <v>508</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>37</v>
@@ -9646,22 +9646,22 @@
         <v>682</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>33</v>
+        <v>683</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>683</v>
+        <v>228</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>230</v>
+        <v>36</v>
       </c>
       <c r="T88" s="1" t="s">
         <v>228</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="V88" s="1" t="s">
         <v>37</v>
@@ -9686,11 +9686,11 @@
       <c r="A89" t="s">
         <v>686</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89">
         <v>105</v>
-      </c>
-      <c r="C89" t="s">
-        <v>29</v>
       </c>
       <c r="D89" t="s">
         <v>473</v>
@@ -9702,10 +9702,10 @@
         <v>455</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>33</v>
+        <v>456</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>456</v>
+        <v>687</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>37</v>
@@ -9714,7 +9714,7 @@
         <v>508</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>687</v>
+        <v>36</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>37</v>
@@ -9729,25 +9729,25 @@
         <v>688</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>33</v>
+        <v>689</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>39</v>
+        <v>477</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>476</v>
+        <v>36</v>
       </c>
       <c r="T89" s="1" t="s">
         <v>687</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>687</v>
+        <v>37</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="W89" s="1" t="s">
         <v>690</v>
@@ -9769,11 +9769,11 @@
       <c r="A90" t="s">
         <v>692</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90">
         <v>61</v>
-      </c>
-      <c r="C90" t="s">
-        <v>141</v>
       </c>
       <c r="D90" t="s">
         <v>235</v>
@@ -9785,10 +9785,10 @@
         <v>237</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>37</v>
@@ -9797,7 +9797,7 @@
         <v>508</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>37</v>
@@ -9812,25 +9812,25 @@
         <v>693</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>33</v>
+        <v>694</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>694</v>
+        <v>239</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="T90" s="1" t="s">
         <v>239</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="W90" s="1" t="s">
         <v>695</v>
@@ -9852,11 +9852,11 @@
       <c r="A91" t="s">
         <v>697</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91">
         <v>4</v>
-      </c>
-      <c r="C91" t="s">
-        <v>189</v>
       </c>
       <c r="D91" t="s">
         <v>432</v>
@@ -9868,10 +9868,10 @@
         <v>434</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>37</v>
+        <v>435</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>37</v>
@@ -9880,7 +9880,7 @@
         <v>508</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>436</v>
+        <v>37</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>37</v>
@@ -9895,25 +9895,25 @@
         <v>699</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>37</v>
+        <v>700</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>319</v>
+        <v>198</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>700</v>
+        <v>436</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>197</v>
+        <v>37</v>
       </c>
       <c r="T91" s="1" t="s">
         <v>436</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>436</v>
+        <v>37</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="W91" s="1" t="s">
         <v>701</v>
@@ -9935,11 +9935,11 @@
       <c r="A92" t="s">
         <v>703</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92">
         <v>66</v>
-      </c>
-      <c r="C92" t="s">
-        <v>189</v>
       </c>
       <c r="D92" t="s">
         <v>442</v>
@@ -9951,10 +9951,10 @@
         <v>444</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>37</v>
+        <v>445</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>37</v>
@@ -9963,7 +9963,7 @@
         <v>508</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>446</v>
+        <v>37</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>37</v>
@@ -9978,22 +9978,22 @@
         <v>705</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>37</v>
+        <v>706</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>37</v>
+        <v>449</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>706</v>
+        <v>446</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>448</v>
+        <v>37</v>
       </c>
       <c r="T92" s="1" t="s">
         <v>446</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>446</v>
+        <v>37</v>
       </c>
       <c r="V92" s="1" t="s">
         <v>37</v>
@@ -10018,11 +10018,11 @@
       <c r="A93" t="s">
         <v>709</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C93">
         <v>106</v>
-      </c>
-      <c r="C93" t="s">
-        <v>141</v>
       </c>
       <c r="D93" t="s">
         <v>491</v>
@@ -10034,10 +10034,10 @@
         <v>493</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>33</v>
+        <v>494</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>494</v>
+        <v>37</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>37</v>
@@ -10046,7 +10046,7 @@
         <v>508</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>37</v>
@@ -10061,16 +10061,16 @@
         <v>710</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>33</v>
+        <v>711</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>37</v>
+        <v>497</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>711</v>
+        <v>37</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>496</v>
+        <v>36</v>
       </c>
       <c r="T93" s="1" t="s">
         <v>37</v>
@@ -10101,11 +10101,11 @@
       <c r="A94" t="s">
         <v>714</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94">
         <v>108</v>
-      </c>
-      <c r="C94" t="s">
-        <v>29</v>
       </c>
       <c r="D94" t="s">
         <v>453</v>
@@ -10117,10 +10117,10 @@
         <v>455</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>33</v>
+        <v>456</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>456</v>
+        <v>37</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>37</v>
@@ -10129,13 +10129,13 @@
         <v>37</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>37</v>
@@ -10144,16 +10144,16 @@
         <v>457</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>33</v>
+        <v>458</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>37</v>
+        <v>459</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>459</v>
+        <v>37</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>458</v>
+        <v>36</v>
       </c>
       <c r="T94" s="1" t="s">
         <v>37</v>
@@ -10184,11 +10184,11 @@
       <c r="A95" t="s">
         <v>715</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95">
         <v>109</v>
-      </c>
-      <c r="C95" t="s">
-        <v>74</v>
       </c>
       <c r="D95" t="s">
         <v>463</v>
@@ -10200,10 +10200,10 @@
         <v>465</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>33</v>
+        <v>716</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>716</v>
+        <v>37</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>37</v>
@@ -10212,7 +10212,7 @@
         <v>37</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>37</v>
@@ -10227,16 +10227,16 @@
         <v>717</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>33</v>
+        <v>718</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>37</v>
+        <v>719</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>718</v>
+        <v>37</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>719</v>
+        <v>36</v>
       </c>
       <c r="T95" s="1" t="s">
         <v>37</v>
@@ -10267,11 +10267,11 @@
       <c r="A96" t="s">
         <v>722</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="s">
+        <v>312</v>
+      </c>
+      <c r="C96">
         <v>107</v>
-      </c>
-      <c r="C96" t="s">
-        <v>312</v>
       </c>
       <c r="D96" t="s">
         <v>481</v>
@@ -10283,10 +10283,10 @@
         <v>483</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>33</v>
+        <v>484</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>484</v>
+        <v>37</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>37</v>
@@ -10295,7 +10295,7 @@
         <v>37</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>37</v>
@@ -10310,16 +10310,16 @@
         <v>485</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>33</v>
+        <v>486</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>37</v>
+        <v>487</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>487</v>
+        <v>37</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>486</v>
+        <v>36</v>
       </c>
       <c r="T96" s="1" t="s">
         <v>37</v>
@@ -10392,7 +10392,7 @@
         <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J102" t="s">
         <v>23</v>
@@ -10414,11 +10414,11 @@
       <c r="A103" t="s">
         <v>726</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="s">
+        <v>189</v>
+      </c>
+      <c r="C103">
         <v>2</v>
-      </c>
-      <c r="C103" t="s">
-        <v>189</v>
       </c>
       <c r="D103" t="s">
         <v>300</v>
@@ -10458,11 +10458,11 @@
       <c r="A104" t="s">
         <v>730</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="s">
+        <v>141</v>
+      </c>
+      <c r="C104">
         <v>7</v>
-      </c>
-      <c r="C104" t="s">
-        <v>141</v>
       </c>
       <c r="D104" t="s">
         <v>382</v>
@@ -10502,11 +10502,11 @@
       <c r="A105" t="s">
         <v>733</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105">
         <v>31</v>
-      </c>
-      <c r="C105" t="s">
-        <v>74</v>
       </c>
       <c r="D105" t="s">
         <v>75</v>
@@ -10546,11 +10546,11 @@
       <c r="A106" t="s">
         <v>736</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106">
         <v>80</v>
-      </c>
-      <c r="C106" t="s">
-        <v>115</v>
       </c>
       <c r="D106" t="s">
         <v>393</v>
@@ -10590,11 +10590,11 @@
       <c r="A107" t="s">
         <v>739</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="s">
+        <v>88</v>
+      </c>
+      <c r="C107">
         <v>30</v>
-      </c>
-      <c r="C107" t="s">
-        <v>88</v>
       </c>
       <c r="D107" t="s">
         <v>89</v>
@@ -10634,11 +10634,11 @@
       <c r="A108" t="s">
         <v>742</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="s">
+        <v>141</v>
+      </c>
+      <c r="C108">
         <v>48</v>
-      </c>
-      <c r="C108" t="s">
-        <v>141</v>
       </c>
       <c r="D108" t="s">
         <v>142</v>
@@ -10678,11 +10678,11 @@
       <c r="A109" t="s">
         <v>745</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="s">
+        <v>141</v>
+      </c>
+      <c r="C109">
         <v>99</v>
-      </c>
-      <c r="C109" t="s">
-        <v>141</v>
       </c>
       <c r="D109" t="s">
         <v>287</v>
@@ -10722,11 +10722,11 @@
       <c r="A110" t="s">
         <v>748</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="s">
+        <v>141</v>
+      </c>
+      <c r="C110">
         <v>61</v>
-      </c>
-      <c r="C110" t="s">
-        <v>141</v>
       </c>
       <c r="D110" t="s">
         <v>235</v>
@@ -10766,11 +10766,11 @@
       <c r="A111" t="s">
         <v>751</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="s">
+        <v>189</v>
+      </c>
+      <c r="C111">
         <v>45</v>
-      </c>
-      <c r="C111" t="s">
-        <v>189</v>
       </c>
       <c r="D111" t="s">
         <v>426</v>
@@ -10810,11 +10810,11 @@
       <c r="A112" t="s">
         <v>754</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112">
         <v>17</v>
-      </c>
-      <c r="C112" t="s">
-        <v>29</v>
       </c>
       <c r="D112" t="s">
         <v>128</v>
@@ -10854,11 +10854,11 @@
       <c r="A113" t="s">
         <v>757</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113">
         <v>52</v>
-      </c>
-      <c r="C113" t="s">
-        <v>29</v>
       </c>
       <c r="D113" t="s">
         <v>177</v>
@@ -10898,11 +10898,11 @@
       <c r="A114" t="s">
         <v>760</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="s">
+        <v>141</v>
+      </c>
+      <c r="C114">
         <v>90</v>
-      </c>
-      <c r="C114" t="s">
-        <v>141</v>
       </c>
       <c r="D114" t="s">
         <v>415</v>
@@ -10942,11 +10942,11 @@
       <c r="A115" t="s">
         <v>763</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115">
         <v>6</v>
-      </c>
-      <c r="C115" t="s">
-        <v>141</v>
       </c>
       <c r="D115" t="s">
         <v>258</v>
@@ -10986,11 +10986,11 @@
       <c r="A116" t="s">
         <v>766</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116">
         <v>23</v>
-      </c>
-      <c r="C116" t="s">
-        <v>29</v>
       </c>
       <c r="D116" t="s">
         <v>30</v>
@@ -11030,11 +11030,11 @@
       <c r="A117" t="s">
         <v>769</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117">
         <v>86</v>
-      </c>
-      <c r="C117" t="s">
-        <v>115</v>
       </c>
       <c r="D117" t="s">
         <v>353</v>
@@ -11074,11 +11074,11 @@
       <c r="A118" t="s">
         <v>772</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="s">
+        <v>141</v>
+      </c>
+      <c r="C118">
         <v>88</v>
-      </c>
-      <c r="C118" t="s">
-        <v>141</v>
       </c>
       <c r="D118" t="s">
         <v>247</v>
@@ -11118,11 +11118,11 @@
       <c r="A119" t="s">
         <v>775</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="s">
+        <v>74</v>
+      </c>
+      <c r="C119">
         <v>39</v>
-      </c>
-      <c r="C119" t="s">
-        <v>74</v>
       </c>
       <c r="D119" t="s">
         <v>269</v>
@@ -11162,11 +11162,11 @@
       <c r="A120" t="s">
         <v>778</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="s">
+        <v>189</v>
+      </c>
+      <c r="C120">
         <v>83</v>
-      </c>
-      <c r="C120" t="s">
-        <v>189</v>
       </c>
       <c r="D120" t="s">
         <v>190</v>
@@ -11206,11 +11206,11 @@
       <c r="A121" t="s">
         <v>781</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="s">
+        <v>312</v>
+      </c>
+      <c r="C121">
         <v>9</v>
-      </c>
-      <c r="C121" t="s">
-        <v>312</v>
       </c>
       <c r="D121" t="s">
         <v>313</v>
@@ -11250,11 +11250,11 @@
       <c r="A122" t="s">
         <v>784</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="s">
+        <v>141</v>
+      </c>
+      <c r="C122">
         <v>79</v>
-      </c>
-      <c r="C122" t="s">
-        <v>141</v>
       </c>
       <c r="D122" t="s">
         <v>213</v>
@@ -11294,11 +11294,11 @@
       <c r="A123" t="s">
         <v>787</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="s">
+        <v>141</v>
+      </c>
+      <c r="C123">
         <v>13</v>
-      </c>
-      <c r="C123" t="s">
-        <v>141</v>
       </c>
       <c r="D123" t="s">
         <v>202</v>
@@ -11338,11 +11338,11 @@
       <c r="A124" t="s">
         <v>790</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="s">
+        <v>74</v>
+      </c>
+      <c r="C124">
         <v>20</v>
-      </c>
-      <c r="C124" t="s">
-        <v>74</v>
       </c>
       <c r="D124" t="s">
         <v>102</v>
@@ -11382,11 +11382,11 @@
       <c r="A125" t="s">
         <v>793</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="s">
+        <v>141</v>
+      </c>
+      <c r="C125">
         <v>104</v>
-      </c>
-      <c r="C125" t="s">
-        <v>141</v>
       </c>
       <c r="D125" t="s">
         <v>370</v>
@@ -11426,11 +11426,11 @@
       <c r="A126" t="s">
         <v>796</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="s">
+        <v>29</v>
+      </c>
+      <c r="C126">
         <v>21</v>
-      </c>
-      <c r="C126" t="s">
-        <v>29</v>
       </c>
       <c r="D126" t="s">
         <v>46</v>
@@ -11470,11 +11470,11 @@
       <c r="A127" t="s">
         <v>799</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="s">
+        <v>141</v>
+      </c>
+      <c r="C127">
         <v>57</v>
-      </c>
-      <c r="C127" t="s">
-        <v>141</v>
       </c>
       <c r="D127" t="s">
         <v>359</v>
@@ -11514,11 +11514,11 @@
       <c r="A128" t="s">
         <v>802</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="s">
+        <v>88</v>
+      </c>
+      <c r="C128">
         <v>94</v>
-      </c>
-      <c r="C128" t="s">
-        <v>88</v>
       </c>
       <c r="D128" t="s">
         <v>404</v>
@@ -11558,11 +11558,11 @@
       <c r="A129" t="s">
         <v>805</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="s">
+        <v>29</v>
+      </c>
+      <c r="C129">
         <v>60</v>
-      </c>
-      <c r="C129" t="s">
-        <v>29</v>
       </c>
       <c r="D129" t="s">
         <v>224</v>
@@ -11602,11 +11602,11 @@
       <c r="A130" t="s">
         <v>808</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C130">
         <v>73</v>
-      </c>
-      <c r="C130" t="s">
-        <v>29</v>
       </c>
       <c r="D130" t="s">
         <v>154</v>
@@ -11646,11 +11646,11 @@
       <c r="A131" t="s">
         <v>811</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131">
         <v>95</v>
-      </c>
-      <c r="C131" t="s">
-        <v>29</v>
       </c>
       <c r="D131" t="s">
         <v>325</v>
@@ -11690,11 +11690,11 @@
       <c r="A132" t="s">
         <v>812</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132">
         <v>12</v>
-      </c>
-      <c r="C132" t="s">
-        <v>141</v>
       </c>
       <c r="D132" t="s">
         <v>341</v>
@@ -11734,11 +11734,11 @@
       <c r="A133" t="s">
         <v>815</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="s">
+        <v>115</v>
+      </c>
+      <c r="C133">
         <v>26</v>
-      </c>
-      <c r="C133" t="s">
-        <v>115</v>
       </c>
       <c r="D133" t="s">
         <v>116</v>
@@ -11778,11 +11778,11 @@
       <c r="A134" t="s">
         <v>818</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="s">
+        <v>189</v>
+      </c>
+      <c r="C134">
         <v>66</v>
-      </c>
-      <c r="C134" t="s">
-        <v>189</v>
       </c>
       <c r="D134" t="s">
         <v>442</v>
@@ -11822,11 +11822,11 @@
       <c r="A135" t="s">
         <v>821</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="s">
+        <v>29</v>
+      </c>
+      <c r="C135">
         <v>98</v>
-      </c>
-      <c r="C135" t="s">
-        <v>29</v>
       </c>
       <c r="D135" t="s">
         <v>275</v>
@@ -11866,11 +11866,11 @@
       <c r="A136" t="s">
         <v>824</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="s">
+        <v>29</v>
+      </c>
+      <c r="C136">
         <v>19</v>
-      </c>
-      <c r="C136" t="s">
-        <v>29</v>
       </c>
       <c r="D136" t="s">
         <v>60</v>
@@ -11910,11 +11910,11 @@
       <c r="A137" t="s">
         <v>827</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="s">
+        <v>189</v>
+      </c>
+      <c r="C137">
         <v>4</v>
-      </c>
-      <c r="C137" t="s">
-        <v>189</v>
       </c>
       <c r="D137" t="s">
         <v>432</v>
@@ -11954,11 +11954,11 @@
       <c r="A138" t="s">
         <v>828</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="s">
+        <v>29</v>
+      </c>
+      <c r="C138">
         <v>46</v>
-      </c>
-      <c r="C138" t="s">
-        <v>29</v>
       </c>
       <c r="D138" t="s">
         <v>166</v>
@@ -11998,11 +11998,11 @@
       <c r="A139" t="s">
         <v>831</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="s">
+        <v>189</v>
+      </c>
+      <c r="C139">
         <v>97</v>
-      </c>
-      <c r="C139" t="s">
-        <v>189</v>
       </c>
       <c r="D139" t="s">
         <v>330</v>
@@ -12060,22 +12060,22 @@
         <v>838</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G142" t="s">
         <v>725</v>
       </c>
       <c r="H142" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I142" t="s">
         <v>504</v>
       </c>
       <c r="J142" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L142" t="s">
         <v>14</v>
@@ -12087,25 +12087,25 @@
         <v>503</v>
       </c>
       <c r="O142" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P142" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Q142" t="s">
         <v>18</v>
       </c>
       <c r="R142" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S142" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T142" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="U142" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V142" t="s">
         <v>24</v>
@@ -12116,13 +12116,13 @@
     </row>
     <row r="143" spans="1:27">
       <c r="A143" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>61</v>
       </c>
       <c r="C143" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="D143" t="s">
         <v>236</v>
@@ -12173,7 +12173,7 @@
         <v>842</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U143" s="1" t="s">
         <v>37</v>
@@ -12187,13 +12187,13 @@
     </row>
     <row r="144" spans="1:27">
       <c r="A144" t="s">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="B144">
         <v>88</v>
       </c>
       <c r="C144" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="D144" t="s">
         <v>248</v>
@@ -12244,7 +12244,7 @@
         <v>848</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U144" s="1" t="s">
         <v>37</v>
@@ -12258,13 +12258,13 @@
     </row>
     <row r="145" spans="1:27">
       <c r="A145" t="s">
-        <v>258</v>
+        <v>141</v>
       </c>
       <c r="B145">
         <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>141</v>
+        <v>258</v>
       </c>
       <c r="D145" t="s">
         <v>259</v>
@@ -12315,7 +12315,7 @@
         <v>853</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U145" s="1" t="s">
         <v>37</v>
@@ -12329,13 +12329,13 @@
     </row>
     <row r="146" spans="1:27">
       <c r="A146" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="B146">
         <v>17</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="D146" t="s">
         <v>129</v>
@@ -12386,7 +12386,7 @@
         <v>858</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="U146" s="1" t="s">
         <v>861</v>
@@ -12400,13 +12400,13 @@
     </row>
     <row r="147" spans="1:27">
       <c r="A147" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B147">
         <v>48</v>
       </c>
       <c r="C147" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D147" t="s">
         <v>143</v>
@@ -12457,7 +12457,7 @@
         <v>864</v>
       </c>
       <c r="T147" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="U147" s="1" t="s">
         <v>867</v>
@@ -12471,13 +12471,13 @@
     </row>
     <row r="148" spans="1:27">
       <c r="A148" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B148">
         <v>19</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D148" t="s">
         <v>61</v>
@@ -12501,7 +12501,7 @@
         <v>843</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L148" s="1" t="s">
         <v>37</v>
@@ -12528,7 +12528,7 @@
         <v>870</v>
       </c>
       <c r="T148" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U148" s="1" t="s">
         <v>873</v>
@@ -12542,13 +12542,13 @@
     </row>
     <row r="149" spans="1:27">
       <c r="A149" t="s">
-        <v>463</v>
+        <v>74</v>
       </c>
       <c r="B149">
         <v>109</v>
       </c>
       <c r="C149" t="s">
-        <v>74</v>
+        <v>463</v>
       </c>
       <c r="D149" t="s">
         <v>464</v>
@@ -12572,7 +12572,7 @@
         <v>843</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L149" s="1" t="s">
         <v>37</v>
@@ -12613,13 +12613,13 @@
     </row>
     <row r="150" spans="1:27">
       <c r="A150" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B150">
         <v>31</v>
       </c>
       <c r="C150" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D150" t="s">
         <v>76</v>
@@ -12670,7 +12670,7 @@
         <v>880</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="U150" s="1" t="s">
         <v>37</v>
@@ -12684,13 +12684,13 @@
     </row>
     <row r="151" spans="1:27">
       <c r="A151" t="s">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="B151">
         <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="D151" t="s">
         <v>301</v>
@@ -12755,13 +12755,13 @@
     </row>
     <row r="152" spans="1:27">
       <c r="A152" t="s">
-        <v>224</v>
+        <v>29</v>
       </c>
       <c r="B152">
         <v>60</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="D152" t="s">
         <v>225</v>
@@ -12826,13 +12826,13 @@
     </row>
     <row r="153" spans="1:27">
       <c r="A153" t="s">
-        <v>382</v>
+        <v>141</v>
       </c>
       <c r="B153">
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>141</v>
+        <v>382</v>
       </c>
       <c r="D153" t="s">
         <v>383</v>
@@ -12897,13 +12897,13 @@
     </row>
     <row r="154" spans="1:27">
       <c r="A154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B154">
         <v>23</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D154" t="s">
         <v>31</v>
@@ -12927,7 +12927,7 @@
         <v>843</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L154" s="1" t="s">
         <v>37</v>
@@ -12954,7 +12954,7 @@
         <v>904</v>
       </c>
       <c r="T154" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U154" s="1" t="s">
         <v>907</v>
@@ -12968,13 +12968,13 @@
     </row>
     <row r="155" spans="1:27">
       <c r="A155" t="s">
-        <v>353</v>
+        <v>115</v>
       </c>
       <c r="B155">
         <v>86</v>
       </c>
       <c r="C155" t="s">
-        <v>115</v>
+        <v>353</v>
       </c>
       <c r="D155" t="s">
         <v>354</v>
@@ -13025,7 +13025,7 @@
         <v>910</v>
       </c>
       <c r="T155" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="U155" s="1" t="s">
         <v>37</v>
@@ -13039,13 +13039,13 @@
     </row>
     <row r="156" spans="1:27">
       <c r="A156" t="s">
-        <v>370</v>
+        <v>141</v>
       </c>
       <c r="B156">
         <v>104</v>
       </c>
       <c r="C156" t="s">
-        <v>141</v>
+        <v>370</v>
       </c>
       <c r="D156" t="s">
         <v>371</v>
@@ -13096,7 +13096,7 @@
         <v>915</v>
       </c>
       <c r="T156" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="U156" s="1" t="s">
         <v>37</v>
@@ -13110,13 +13110,13 @@
     </row>
     <row r="157" spans="1:27">
       <c r="A157" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B157">
         <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D157" t="s">
         <v>314</v>
@@ -13167,7 +13167,7 @@
         <v>921</v>
       </c>
       <c r="T157" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="U157" s="1" t="s">
         <v>37</v>
@@ -13181,13 +13181,13 @@
     </row>
     <row r="158" spans="1:27">
       <c r="A158" t="s">
-        <v>325</v>
+        <v>29</v>
       </c>
       <c r="B158">
         <v>95</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>325</v>
       </c>
       <c r="D158" t="s">
         <v>326</v>
@@ -13238,7 +13238,7 @@
         <v>926</v>
       </c>
       <c r="T158" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U158" s="1" t="s">
         <v>37</v>
@@ -13252,13 +13252,13 @@
     </row>
     <row r="159" spans="1:27">
       <c r="A159" t="s">
-        <v>453</v>
+        <v>29</v>
       </c>
       <c r="B159">
         <v>108</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>453</v>
       </c>
       <c r="D159" t="s">
         <v>454</v>
@@ -13323,13 +13323,13 @@
     </row>
     <row r="160" spans="1:27">
       <c r="A160" t="s">
-        <v>269</v>
+        <v>74</v>
       </c>
       <c r="B160">
         <v>39</v>
       </c>
       <c r="C160" t="s">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="D160" t="s">
         <v>270</v>
@@ -13380,7 +13380,7 @@
         <v>934</v>
       </c>
       <c r="T160" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="U160" s="1" t="s">
         <v>37</v>
@@ -13394,13 +13394,13 @@
     </row>
     <row r="161" spans="1:27">
       <c r="A161" t="s">
-        <v>393</v>
+        <v>115</v>
       </c>
       <c r="B161">
         <v>80</v>
       </c>
       <c r="C161" t="s">
-        <v>115</v>
+        <v>393</v>
       </c>
       <c r="D161" t="s">
         <v>394</v>
@@ -13451,7 +13451,7 @@
         <v>939</v>
       </c>
       <c r="T161" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="U161" s="1" t="s">
         <v>37</v>
@@ -13465,13 +13465,13 @@
     </row>
     <row r="162" spans="1:27">
       <c r="A162" t="s">
-        <v>404</v>
+        <v>88</v>
       </c>
       <c r="B162">
         <v>94</v>
       </c>
       <c r="C162" t="s">
-        <v>88</v>
+        <v>404</v>
       </c>
       <c r="D162" t="s">
         <v>405</v>
@@ -13495,7 +13495,7 @@
         <v>843</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>37</v>
@@ -13536,13 +13536,13 @@
     </row>
     <row r="163" spans="1:27">
       <c r="A163" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B163">
         <v>21</v>
       </c>
       <c r="C163" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D163" t="s">
         <v>47</v>
@@ -13593,7 +13593,7 @@
         <v>949</v>
       </c>
       <c r="T163" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="U163" s="1" t="s">
         <v>953</v>
@@ -13607,13 +13607,13 @@
     </row>
     <row r="164" spans="1:27">
       <c r="A164" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="B164">
         <v>73</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="D164" t="s">
         <v>155</v>
@@ -13664,7 +13664,7 @@
         <v>956</v>
       </c>
       <c r="T164" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="U164" s="1" t="s">
         <v>37</v>
@@ -13678,13 +13678,13 @@
     </row>
     <row r="165" spans="1:27">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="B165">
         <v>46</v>
       </c>
       <c r="C165" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="D165" t="s">
         <v>167</v>
@@ -13735,7 +13735,7 @@
         <v>962</v>
       </c>
       <c r="T165" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U165" s="1" t="s">
         <v>37</v>
@@ -13749,13 +13749,13 @@
     </row>
     <row r="166" spans="1:27">
       <c r="A166" t="s">
-        <v>275</v>
+        <v>29</v>
       </c>
       <c r="B166">
         <v>98</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>275</v>
       </c>
       <c r="D166" t="s">
         <v>276</v>
@@ -13779,7 +13779,7 @@
         <v>843</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L166" s="1" t="s">
         <v>37</v>
@@ -13820,13 +13820,13 @@
     </row>
     <row r="167" spans="1:27">
       <c r="A167" t="s">
-        <v>442</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>66</v>
       </c>
       <c r="C167" t="s">
-        <v>189</v>
+        <v>442</v>
       </c>
       <c r="D167" t="s">
         <v>443</v>
@@ -13891,13 +13891,13 @@
     </row>
     <row r="168" spans="1:27">
       <c r="A168" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B168">
         <v>20</v>
       </c>
       <c r="C168" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D168" t="s">
         <v>103</v>
@@ -13962,13 +13962,13 @@
     </row>
     <row r="169" spans="1:27">
       <c r="A169" t="s">
-        <v>341</v>
+        <v>141</v>
       </c>
       <c r="B169">
         <v>12</v>
       </c>
       <c r="C169" t="s">
-        <v>141</v>
+        <v>341</v>
       </c>
       <c r="D169" t="s">
         <v>342</v>
@@ -14033,13 +14033,13 @@
     </row>
     <row r="170" spans="1:27">
       <c r="A170" t="s">
-        <v>473</v>
+        <v>29</v>
       </c>
       <c r="B170">
         <v>105</v>
       </c>
       <c r="C170" t="s">
-        <v>29</v>
+        <v>473</v>
       </c>
       <c r="D170" t="s">
         <v>474</v>
@@ -14090,7 +14090,7 @@
         <v>687</v>
       </c>
       <c r="T170" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U170" s="1" t="s">
         <v>37</v>
@@ -14104,13 +14104,13 @@
     </row>
     <row r="171" spans="1:27">
       <c r="A171" t="s">
-        <v>359</v>
+        <v>141</v>
       </c>
       <c r="B171">
         <v>57</v>
       </c>
       <c r="C171" t="s">
-        <v>141</v>
+        <v>359</v>
       </c>
       <c r="D171" t="s">
         <v>360</v>
@@ -14161,7 +14161,7 @@
         <v>993</v>
       </c>
       <c r="T171" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U171" s="1" t="s">
         <v>37</v>
@@ -14175,13 +14175,13 @@
     </row>
     <row r="172" spans="1:27">
       <c r="A172" t="s">
-        <v>287</v>
+        <v>141</v>
       </c>
       <c r="B172">
         <v>99</v>
       </c>
       <c r="C172" t="s">
-        <v>141</v>
+        <v>287</v>
       </c>
       <c r="D172" t="s">
         <v>288</v>
@@ -14246,13 +14246,13 @@
     </row>
     <row r="173" spans="1:27">
       <c r="A173" t="s">
-        <v>415</v>
+        <v>141</v>
       </c>
       <c r="B173">
         <v>90</v>
       </c>
       <c r="C173" t="s">
-        <v>141</v>
+        <v>415</v>
       </c>
       <c r="D173" t="s">
         <v>416</v>
@@ -14317,13 +14317,13 @@
     </row>
     <row r="174" spans="1:27">
       <c r="A174" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="B174">
         <v>52</v>
       </c>
       <c r="C174" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="D174" t="s">
         <v>178</v>
@@ -14374,7 +14374,7 @@
         <v>910</v>
       </c>
       <c r="T174" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="U174" s="1" t="s">
         <v>1002</v>
@@ -14388,13 +14388,13 @@
     </row>
     <row r="175" spans="1:27">
       <c r="A175" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="B175">
         <v>13</v>
       </c>
       <c r="C175" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="D175" t="s">
         <v>203</v>
@@ -14445,7 +14445,7 @@
         <v>1005</v>
       </c>
       <c r="T175" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="U175" s="1" t="s">
         <v>37</v>
@@ -14459,13 +14459,13 @@
     </row>
     <row r="176" spans="1:27">
       <c r="A176" t="s">
-        <v>330</v>
+        <v>189</v>
       </c>
       <c r="B176">
         <v>97</v>
       </c>
       <c r="C176" t="s">
-        <v>189</v>
+        <v>330</v>
       </c>
       <c r="D176" t="s">
         <v>331</v>
@@ -14516,7 +14516,7 @@
         <v>1010</v>
       </c>
       <c r="T176" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="U176" s="1" t="s">
         <v>37</v>
@@ -14530,13 +14530,13 @@
     </row>
     <row r="177" spans="1:27">
       <c r="A177" t="s">
-        <v>481</v>
+        <v>312</v>
       </c>
       <c r="B177">
         <v>107</v>
       </c>
       <c r="C177" t="s">
-        <v>312</v>
+        <v>481</v>
       </c>
       <c r="D177" t="s">
         <v>482</v>
@@ -14601,13 +14601,13 @@
     </row>
     <row r="178" spans="1:27">
       <c r="A178" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B178">
         <v>30</v>
       </c>
       <c r="C178" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D178" t="s">
         <v>90</v>
@@ -14658,7 +14658,7 @@
         <v>1019</v>
       </c>
       <c r="T178" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="U178" s="1" t="s">
         <v>1022</v>
@@ -14672,13 +14672,13 @@
     </row>
     <row r="179" spans="1:27">
       <c r="A179" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B179">
         <v>83</v>
       </c>
       <c r="C179" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D179" t="s">
         <v>191</v>
@@ -14743,13 +14743,13 @@
     </row>
     <row r="180" spans="1:27">
       <c r="A180" t="s">
-        <v>426</v>
+        <v>189</v>
       </c>
       <c r="B180">
         <v>45</v>
       </c>
       <c r="C180" t="s">
-        <v>189</v>
+        <v>426</v>
       </c>
       <c r="D180" t="s">
         <v>427</v>
@@ -14814,13 +14814,13 @@
     </row>
     <row r="181" spans="1:27">
       <c r="A181" t="s">
-        <v>432</v>
+        <v>189</v>
       </c>
       <c r="B181">
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>189</v>
+        <v>432</v>
       </c>
       <c r="D181" t="s">
         <v>433</v>
@@ -14871,7 +14871,7 @@
         <v>1035</v>
       </c>
       <c r="T181" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="U181" s="1" t="s">
         <v>37</v>
@@ -14885,13 +14885,13 @@
     </row>
     <row r="182" spans="1:27">
       <c r="A182" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="B182">
         <v>79</v>
       </c>
       <c r="C182" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="D182" t="s">
         <v>214</v>
@@ -14942,7 +14942,7 @@
         <v>934</v>
       </c>
       <c r="T182" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="U182" s="1" t="s">
         <v>37</v>
@@ -14956,13 +14956,13 @@
     </row>
     <row r="183" spans="1:27">
       <c r="A183" t="s">
-        <v>491</v>
+        <v>141</v>
       </c>
       <c r="B183">
         <v>106</v>
       </c>
       <c r="C183" t="s">
-        <v>141</v>
+        <v>491</v>
       </c>
       <c r="D183" t="s">
         <v>492</v>
@@ -15027,13 +15027,13 @@
     </row>
     <row r="184" spans="1:27">
       <c r="A184" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B184">
         <v>26</v>
       </c>
       <c r="C184" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D184" t="s">
         <v>117</v>
@@ -15098,11 +15098,6 @@
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A1:AB1"/>
-    <mergeCell ref="A1:O1"/>
-  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
